--- a/Pokemon Supply Distribution.xlsx
+++ b/Pokemon Supply Distribution.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyFiles\00 - Projects\Dev\pokerumble\misc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ellaine Grace Salisi\Desktop\git\rumble\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACA5EDD9-6A17-4C02-8184-F564DBBCCFCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49236CCE-4D59-4806-BCA2-2AAFB387F52F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{C5DC818E-8AB9-4D02-86E9-8C9248B295A5}"/>
+    <workbookView xWindow="3072" yWindow="3072" windowWidth="17280" windowHeight="9420" activeTab="1" xr2:uid="{C5DC818E-8AB9-4D02-86E9-8C9248B295A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,9 +25,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="130">
   <si>
     <t>Zapdos</t>
   </si>
@@ -65,9 +64,6 @@
     <t>Darkrai</t>
   </si>
   <si>
-    <t>Bulbasaur</t>
-  </si>
-  <si>
     <t>Charmander</t>
   </si>
   <si>
@@ -77,9 +73,6 @@
     <t>Growlithe</t>
   </si>
   <si>
-    <t>Bellsprout</t>
-  </si>
-  <si>
     <t>Pikachu</t>
   </si>
   <si>
@@ -227,9 +220,6 @@
     <t>Column1</t>
   </si>
   <si>
-    <t>bubba</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -299,9 +289,6 @@
     <t>gibut</t>
   </si>
   <si>
-    <t>hel</t>
-  </si>
-  <si>
     <t>proto</t>
   </si>
   <si>
@@ -383,9 +370,6 @@
     <t>luxious</t>
   </si>
   <si>
-    <t>leotrik</t>
-  </si>
-  <si>
     <t>zapzap</t>
   </si>
   <si>
@@ -416,14 +400,38 @@
     <t>fieros</t>
   </si>
   <si>
-    <t>anapmak</t>
+    <t>menggay</t>
+  </si>
+  <si>
+    <t>luwi</t>
+  </si>
+  <si>
+    <t>Shroomish</t>
+  </si>
+  <si>
+    <t>mooshi</t>
+  </si>
+  <si>
+    <t>yamper</t>
+  </si>
+  <si>
+    <t>corge</t>
+  </si>
+  <si>
+    <t>surskit</t>
+  </si>
+  <si>
+    <t>foongus</t>
+  </si>
+  <si>
+    <t>skiddo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -439,8 +447,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -453,8 +469,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -462,11 +490,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -477,6 +542,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -497,8 +570,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F12EF143-E498-46B0-9F37-1CDAED47B267}" name="Table1" displayName="Table1" ref="A2:G47" totalsRowShown="0">
-  <autoFilter ref="A2:G47" xr:uid="{F12EF143-E498-46B0-9F37-1CDAED47B267}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F12EF143-E498-46B0-9F37-1CDAED47B267}" name="Table1" displayName="Table1" ref="A2:G48" totalsRowShown="0">
+  <autoFilter ref="A2:G48" xr:uid="{F12EF143-E498-46B0-9F37-1CDAED47B267}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:F44">
     <sortCondition ref="F2:F44"/>
   </sortState>
@@ -822,15 +895,15 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B2">
         <v>4</v>
@@ -839,7 +912,7 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E2">
         <f>C2*B2</f>
@@ -848,7 +921,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B3">
         <v>4</v>
@@ -857,7 +930,7 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E3">
         <f>C3*B3</f>
@@ -866,7 +939,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B4">
         <v>10</v>
@@ -875,7 +948,7 @@
         <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E4">
         <f t="shared" ref="E4:E5" si="0">C4*B4</f>
@@ -884,7 +957,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B5">
         <v>24</v>
@@ -893,7 +966,7 @@
         <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
@@ -916,7 +989,7 @@
   <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="A2" sqref="A2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -940,25 +1013,25 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="F2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -969,16 +1042,16 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E3">
         <v>151</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -989,16 +1062,16 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E4">
         <v>251</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -1009,16 +1082,16 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E5">
         <v>385</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -1029,16 +1102,16 @@
         <v>8</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E6">
         <v>491</v>
       </c>
       <c r="F6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -1049,16 +1122,16 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E7">
         <v>144</v>
       </c>
       <c r="F7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -1069,16 +1142,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D8" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E8">
         <v>145</v>
       </c>
       <c r="F8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -1089,16 +1162,16 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D9" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E9">
         <v>146</v>
       </c>
       <c r="F9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -1109,756 +1182,756 @@
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D10" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E10">
         <v>150</v>
       </c>
       <c r="F10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" t="s">
-        <v>96</v>
-      </c>
-      <c r="D11" t="s">
-        <v>76</v>
+      <c r="B11" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>73</v>
       </c>
       <c r="E11">
         <v>479</v>
       </c>
       <c r="F11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" t="s">
-        <v>97</v>
-      </c>
-      <c r="D12" t="s">
-        <v>65</v>
+      <c r="B12" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>62</v>
       </c>
       <c r="E12">
         <v>135</v>
       </c>
       <c r="F12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" t="s">
-        <v>98</v>
-      </c>
-      <c r="D13" t="s">
-        <v>66</v>
+      <c r="B13" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>63</v>
       </c>
       <c r="E13">
         <v>134</v>
       </c>
       <c r="F13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" t="s">
-        <v>99</v>
-      </c>
-      <c r="D14" t="s">
-        <v>67</v>
+      <c r="B14" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>64</v>
       </c>
       <c r="E14">
         <v>497</v>
       </c>
       <c r="F14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
-      <c r="B15" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15" t="s">
-        <v>87</v>
-      </c>
-      <c r="D15" t="s">
-        <v>77</v>
+      <c r="B15" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>74</v>
       </c>
       <c r="E15">
         <v>391</v>
       </c>
       <c r="F15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
-        <v>61</v>
-      </c>
-      <c r="C16" t="s">
-        <v>100</v>
-      </c>
-      <c r="D16" t="s">
-        <v>65</v>
+      <c r="B16" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>62</v>
       </c>
       <c r="E16">
         <v>100</v>
       </c>
       <c r="F16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
-      <c r="B17" t="s">
-        <v>56</v>
-      </c>
-      <c r="C17" t="s">
-        <v>101</v>
-      </c>
-      <c r="D17" t="s">
-        <v>66</v>
+      <c r="B17" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>63</v>
       </c>
       <c r="E17">
         <v>489</v>
       </c>
       <c r="F17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
-      <c r="B18" t="s">
-        <v>57</v>
-      </c>
-      <c r="C18" t="s">
-        <v>102</v>
-      </c>
-      <c r="D18" t="s">
-        <v>78</v>
+      <c r="B18" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>75</v>
       </c>
       <c r="E18">
         <v>494</v>
       </c>
       <c r="F18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
-      <c r="B19" t="s">
-        <v>58</v>
-      </c>
-      <c r="C19" t="s">
-        <v>103</v>
-      </c>
-      <c r="D19" t="s">
-        <v>65</v>
+      <c r="B19" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>62</v>
       </c>
       <c r="E19">
         <v>181</v>
       </c>
       <c r="F19" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
-      <c r="B20" t="s">
-        <v>59</v>
-      </c>
-      <c r="C20" t="s">
-        <v>104</v>
-      </c>
-      <c r="D20" t="s">
-        <v>67</v>
+      <c r="B20" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>64</v>
       </c>
       <c r="E20">
         <v>331</v>
       </c>
       <c r="F20" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>67</v>
+      <c r="B21" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>62</v>
       </c>
       <c r="E21">
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
-      <c r="B22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" t="s">
-        <v>105</v>
-      </c>
-      <c r="D22" t="s">
-        <v>68</v>
+      <c r="B22" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>65</v>
       </c>
       <c r="E22">
         <v>4</v>
       </c>
       <c r="F22" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
-      <c r="B23" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" t="s">
-        <v>106</v>
-      </c>
-      <c r="D23" t="s">
-        <v>66</v>
+      <c r="B23" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>63</v>
       </c>
       <c r="E23">
         <v>7</v>
       </c>
       <c r="F23" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
-      <c r="B24" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" t="s">
-        <v>107</v>
-      </c>
-      <c r="D24" t="s">
-        <v>67</v>
+      <c r="B24" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>64</v>
       </c>
       <c r="E24">
         <v>191</v>
       </c>
       <c r="F24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
-      <c r="B25" t="s">
-        <v>33</v>
-      </c>
-      <c r="C25" t="s">
-        <v>83</v>
-      </c>
-      <c r="D25" t="s">
-        <v>67</v>
+      <c r="B25" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>64</v>
       </c>
       <c r="E25">
         <v>252</v>
       </c>
       <c r="F25" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
-      <c r="B26" t="s">
-        <v>50</v>
-      </c>
-      <c r="C26" t="s">
-        <v>108</v>
-      </c>
-      <c r="D26" t="s">
-        <v>67</v>
+      <c r="B26" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>64</v>
       </c>
       <c r="E26">
         <v>549</v>
       </c>
       <c r="F26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
-      <c r="B27" t="s">
-        <v>41</v>
-      </c>
-      <c r="C27" t="s">
-        <v>109</v>
-      </c>
-      <c r="D27" t="s">
-        <v>67</v>
+      <c r="B27" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>64</v>
       </c>
       <c r="E27">
         <v>420</v>
       </c>
       <c r="F27" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
-      <c r="B28" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28" t="s">
-        <v>110</v>
-      </c>
-      <c r="D28" t="s">
-        <v>66</v>
+      <c r="B28" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>63</v>
       </c>
       <c r="E28">
         <v>393</v>
       </c>
       <c r="F28" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
-      <c r="B29" t="s">
-        <v>37</v>
-      </c>
-      <c r="C29" t="s">
-        <v>111</v>
-      </c>
-      <c r="D29" t="s">
-        <v>66</v>
+      <c r="B29" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>63</v>
       </c>
       <c r="E29">
         <v>60</v>
       </c>
       <c r="F29" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
-      <c r="B30" t="s">
-        <v>14</v>
-      </c>
-      <c r="C30" t="s">
-        <v>112</v>
-      </c>
-      <c r="D30" t="s">
-        <v>65</v>
+      <c r="B30" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>62</v>
       </c>
       <c r="E30">
         <v>25</v>
       </c>
       <c r="F30" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
-      <c r="B31" t="s">
-        <v>42</v>
-      </c>
-      <c r="C31" t="s">
-        <v>113</v>
-      </c>
-      <c r="D31" t="s">
-        <v>68</v>
+      <c r="B31" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>65</v>
       </c>
       <c r="E31">
         <v>155</v>
       </c>
       <c r="F31" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
-      <c r="B32" t="s">
-        <v>51</v>
-      </c>
-      <c r="C32" t="s">
-        <v>114</v>
-      </c>
-      <c r="D32" t="s">
-        <v>65</v>
+      <c r="B32" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>62</v>
       </c>
       <c r="E32">
         <v>404</v>
       </c>
       <c r="F32" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>31</v>
       </c>
-      <c r="B33" t="s">
-        <v>43</v>
-      </c>
-      <c r="C33" t="s">
-        <v>115</v>
-      </c>
-      <c r="D33" t="s">
-        <v>68</v>
+      <c r="B33" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>65</v>
       </c>
       <c r="E33">
         <v>725</v>
       </c>
       <c r="F33" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>32</v>
       </c>
-      <c r="B34" t="s">
-        <v>38</v>
-      </c>
-      <c r="C34" t="s">
-        <v>116</v>
-      </c>
-      <c r="D34" t="s">
-        <v>65</v>
+      <c r="B34" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>62</v>
       </c>
       <c r="E34">
         <v>239</v>
       </c>
       <c r="F34" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>33</v>
       </c>
-      <c r="B35" t="s">
-        <v>39</v>
-      </c>
-      <c r="C35" t="s">
-        <v>117</v>
-      </c>
-      <c r="D35" t="s">
-        <v>65</v>
+      <c r="B35" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>62</v>
       </c>
       <c r="E35">
         <v>417</v>
       </c>
       <c r="F35" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>34</v>
       </c>
-      <c r="B36" t="s">
-        <v>12</v>
-      </c>
-      <c r="C36" t="s">
-        <v>118</v>
-      </c>
-      <c r="D36" t="s">
-        <v>68</v>
+      <c r="B36" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>65</v>
       </c>
       <c r="E36">
         <v>58</v>
       </c>
       <c r="F36" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>35</v>
       </c>
-      <c r="B37" t="s">
-        <v>44</v>
-      </c>
-      <c r="C37" t="s">
-        <v>84</v>
-      </c>
-      <c r="D37" t="s">
-        <v>68</v>
+      <c r="B37" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>65</v>
       </c>
       <c r="E37">
         <v>37</v>
       </c>
       <c r="F37" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>36</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>67</v>
+      <c r="B38" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>64</v>
       </c>
       <c r="E38">
         <v>69</v>
       </c>
       <c r="F38" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>37</v>
       </c>
-      <c r="B39" t="s">
-        <v>45</v>
-      </c>
-      <c r="C39" t="s">
-        <v>85</v>
-      </c>
-      <c r="D39" t="s">
-        <v>79</v>
+      <c r="B39" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>76</v>
       </c>
       <c r="E39">
         <v>607</v>
       </c>
       <c r="F39" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>38</v>
       </c>
-      <c r="B40" t="s">
-        <v>46</v>
-      </c>
-      <c r="C40" t="s">
-        <v>119</v>
-      </c>
-      <c r="D40" t="s">
-        <v>68</v>
+      <c r="B40" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>65</v>
       </c>
       <c r="E40">
         <v>255</v>
       </c>
       <c r="F40" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>39</v>
       </c>
-      <c r="B41" t="s">
-        <v>47</v>
-      </c>
-      <c r="C41" t="s">
-        <v>86</v>
-      </c>
-      <c r="D41" t="s">
-        <v>80</v>
+      <c r="B41" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="E41">
         <v>194</v>
       </c>
       <c r="F41" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>40</v>
       </c>
-      <c r="B42" t="s">
-        <v>15</v>
-      </c>
-      <c r="C42" t="s">
-        <v>120</v>
-      </c>
-      <c r="D42" t="s">
-        <v>66</v>
+      <c r="B42" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>63</v>
       </c>
       <c r="E42">
         <v>116</v>
       </c>
       <c r="F42" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>41</v>
       </c>
-      <c r="B43" t="s">
-        <v>48</v>
-      </c>
-      <c r="C43" t="s">
-        <v>121</v>
-      </c>
-      <c r="D43" t="s">
-        <v>66</v>
+      <c r="B43" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>63</v>
       </c>
       <c r="E43">
         <v>129</v>
       </c>
       <c r="F43" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>42</v>
       </c>
-      <c r="B44" t="s">
-        <v>49</v>
-      </c>
-      <c r="C44" t="s">
-        <v>122</v>
-      </c>
-      <c r="D44" t="s">
-        <v>81</v>
+      <c r="B44" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>78</v>
       </c>
       <c r="E44">
         <v>81</v>
       </c>
       <c r="F44" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>43</v>
       </c>
-      <c r="B45" t="s">
-        <v>32</v>
-      </c>
-      <c r="C45" t="s">
-        <v>123</v>
-      </c>
-      <c r="D45" t="s">
-        <v>67</v>
+      <c r="B45" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>64</v>
       </c>
       <c r="E45">
         <v>152</v>
       </c>
       <c r="F45" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>44</v>
       </c>
-      <c r="B46" t="s">
-        <v>35</v>
-      </c>
-      <c r="C46" t="s">
-        <v>124</v>
-      </c>
-      <c r="D46" t="s">
-        <v>66</v>
+      <c r="B46" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>63</v>
       </c>
       <c r="E46">
         <v>258</v>
       </c>
       <c r="F46" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>45</v>
       </c>
-      <c r="B47" t="s">
-        <v>34</v>
-      </c>
-      <c r="C47" t="s">
-        <v>125</v>
-      </c>
-      <c r="D47" t="s">
-        <v>68</v>
+      <c r="B47" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>65</v>
       </c>
       <c r="E47">
         <v>653</v>
       </c>
       <c r="F47" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1871,4 +1944,75 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF80773D-1F61-4FD9-8E14-8FA672A16CB8}">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Pokemon Supply Distribution.xlsx
+++ b/Pokemon Supply Distribution.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ellaine Grace Salisi\Desktop\git\rumble\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyFiles\00 - Projects\Dev\rumble\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49236CCE-4D59-4806-BCA2-2AAFB387F52F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{336557DD-3179-404F-B681-E02A0BD3E200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3072" yWindow="3072" windowWidth="17280" windowHeight="9420" activeTab="1" xr2:uid="{C5DC818E-8AB9-4D02-86E9-8C9248B295A5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{C5DC818E-8AB9-4D02-86E9-8C9248B295A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -538,18 +540,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -570,8 +572,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F12EF143-E498-46B0-9F37-1CDAED47B267}" name="Table1" displayName="Table1" ref="A2:G48" totalsRowShown="0">
-  <autoFilter ref="A2:G48" xr:uid="{F12EF143-E498-46B0-9F37-1CDAED47B267}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F12EF143-E498-46B0-9F37-1CDAED47B267}" name="Table1" displayName="Table1" ref="A2:G47" totalsRowShown="0">
+  <autoFilter ref="A2:G47" xr:uid="{F12EF143-E498-46B0-9F37-1CDAED47B267}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:F44">
     <sortCondition ref="F2:F44"/>
   </sortState>
@@ -988,8 +990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9966805-79DB-4CCA-A5D2-3255ED92FDD9}">
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G2"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="K47" sqref="K47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1003,13 +1005,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -1198,13 +1200,13 @@
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="7" t="s">
         <v>73</v>
       </c>
       <c r="E11">
@@ -1218,13 +1220,13 @@
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="7" t="s">
         <v>62</v>
       </c>
       <c r="E12">
@@ -1238,13 +1240,13 @@
       <c r="A13">
         <v>11</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="7" t="s">
         <v>63</v>
       </c>
       <c r="E13">
@@ -1258,13 +1260,13 @@
       <c r="A14">
         <v>12</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="7" t="s">
         <v>64</v>
       </c>
       <c r="E14">
@@ -1278,13 +1280,13 @@
       <c r="A15">
         <v>13</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="7" t="s">
         <v>74</v>
       </c>
       <c r="E15">
@@ -1298,13 +1300,13 @@
       <c r="A16">
         <v>14</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="7" t="s">
         <v>62</v>
       </c>
       <c r="E16">
@@ -1318,13 +1320,13 @@
       <c r="A17">
         <v>15</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="7" t="s">
         <v>63</v>
       </c>
       <c r="E17">
@@ -1338,13 +1340,13 @@
       <c r="A18">
         <v>16</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="7" t="s">
         <v>75</v>
       </c>
       <c r="E18">
@@ -1358,13 +1360,13 @@
       <c r="A19">
         <v>17</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="7" t="s">
         <v>62</v>
       </c>
       <c r="E19">
@@ -1378,13 +1380,13 @@
       <c r="A20">
         <v>18</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="7" t="s">
         <v>64</v>
       </c>
       <c r="E20">
@@ -1398,13 +1400,13 @@
       <c r="A21">
         <v>19</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="7" t="s">
         <v>62</v>
       </c>
       <c r="E21">
@@ -1418,13 +1420,13 @@
       <c r="A22">
         <v>20</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="7" t="s">
         <v>65</v>
       </c>
       <c r="E22">
@@ -1438,13 +1440,13 @@
       <c r="A23">
         <v>21</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="7" t="s">
         <v>63</v>
       </c>
       <c r="E23">
@@ -1458,13 +1460,13 @@
       <c r="A24">
         <v>22</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="7" t="s">
         <v>64</v>
       </c>
       <c r="E24">
@@ -1478,13 +1480,13 @@
       <c r="A25">
         <v>23</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="7" t="s">
         <v>64</v>
       </c>
       <c r="E25">
@@ -1498,13 +1500,13 @@
       <c r="A26">
         <v>24</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="7" t="s">
         <v>64</v>
       </c>
       <c r="E26">
@@ -1518,13 +1520,13 @@
       <c r="A27">
         <v>25</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="7" t="s">
         <v>64</v>
       </c>
       <c r="E27">
@@ -1538,13 +1540,13 @@
       <c r="A28">
         <v>26</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="D28" s="7" t="s">
         <v>63</v>
       </c>
       <c r="E28">
@@ -1558,13 +1560,13 @@
       <c r="A29">
         <v>27</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="D29" s="7" t="s">
         <v>63</v>
       </c>
       <c r="E29">
@@ -1578,13 +1580,13 @@
       <c r="A30">
         <v>28</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="D30" s="7" t="s">
         <v>62</v>
       </c>
       <c r="E30">
@@ -1598,13 +1600,13 @@
       <c r="A31">
         <v>29</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D31" s="7" t="s">
         <v>65</v>
       </c>
       <c r="E31">
@@ -1618,13 +1620,13 @@
       <c r="A32">
         <v>30</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="D32" s="7" t="s">
         <v>62</v>
       </c>
       <c r="E32">
@@ -1638,13 +1640,13 @@
       <c r="A33">
         <v>31</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="D33" s="9" t="s">
+      <c r="D33" s="7" t="s">
         <v>65</v>
       </c>
       <c r="E33">
@@ -1658,13 +1660,13 @@
       <c r="A34">
         <v>32</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="D34" s="9" t="s">
+      <c r="D34" s="7" t="s">
         <v>62</v>
       </c>
       <c r="E34">
@@ -1678,13 +1680,13 @@
       <c r="A35">
         <v>33</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="D35" s="9" t="s">
+      <c r="D35" s="7" t="s">
         <v>62</v>
       </c>
       <c r="E35">
@@ -1698,13 +1700,13 @@
       <c r="A36">
         <v>34</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="D36" s="7" t="s">
         <v>65</v>
       </c>
       <c r="E36">
@@ -1718,13 +1720,13 @@
       <c r="A37">
         <v>35</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C37" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D37" s="9" t="s">
+      <c r="D37" s="7" t="s">
         <v>65</v>
       </c>
       <c r="E37">
@@ -1738,13 +1740,13 @@
       <c r="A38">
         <v>36</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="C38" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="D38" s="9" t="s">
+      <c r="D38" s="7" t="s">
         <v>64</v>
       </c>
       <c r="E38">
@@ -1758,13 +1760,13 @@
       <c r="A39">
         <v>37</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C39" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="D39" s="9" t="s">
+      <c r="D39" s="7" t="s">
         <v>76</v>
       </c>
       <c r="E39">
@@ -1778,13 +1780,13 @@
       <c r="A40">
         <v>38</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="C40" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="D40" s="9" t="s">
+      <c r="D40" s="7" t="s">
         <v>65</v>
       </c>
       <c r="E40">
@@ -1798,13 +1800,13 @@
       <c r="A41">
         <v>39</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="C41" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="D41" s="9" t="s">
+      <c r="D41" s="7" t="s">
         <v>77</v>
       </c>
       <c r="E41">
@@ -1818,13 +1820,13 @@
       <c r="A42">
         <v>40</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C42" s="9" t="s">
+      <c r="C42" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="D42" s="9" t="s">
+      <c r="D42" s="7" t="s">
         <v>63</v>
       </c>
       <c r="E42">
@@ -1838,13 +1840,13 @@
       <c r="A43">
         <v>41</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C43" s="9" t="s">
+      <c r="C43" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="D43" s="9" t="s">
+      <c r="D43" s="7" t="s">
         <v>63</v>
       </c>
       <c r="E43">
@@ -1858,13 +1860,13 @@
       <c r="A44">
         <v>42</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="B44" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C44" s="9" t="s">
+      <c r="C44" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="D44" s="9" t="s">
+      <c r="D44" s="7" t="s">
         <v>78</v>
       </c>
       <c r="E44">
@@ -1878,13 +1880,13 @@
       <c r="A45">
         <v>43</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C45" s="9" t="s">
+      <c r="C45" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="D45" s="9" t="s">
+      <c r="D45" s="7" t="s">
         <v>64</v>
       </c>
       <c r="E45">
@@ -1898,13 +1900,13 @@
       <c r="A46">
         <v>44</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="B46" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C46" s="9" t="s">
+      <c r="C46" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="D46" s="9" t="s">
+      <c r="D46" s="7" t="s">
         <v>63</v>
       </c>
       <c r="E46">
@@ -1918,13 +1920,13 @@
       <c r="A47">
         <v>45</v>
       </c>
-      <c r="B47" s="9" t="s">
+      <c r="B47" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C47" s="9" t="s">
+      <c r="C47" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="D47" s="9" t="s">
+      <c r="D47" s="7" t="s">
         <v>65</v>
       </c>
       <c r="E47">
@@ -1957,25 +1959,25 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="6" t="s">
         <v>79</v>
       </c>
     </row>

--- a/Pokemon Supply Distribution.xlsx
+++ b/Pokemon Supply Distribution.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ellaine Grace Salisi\Desktop\git\rumble\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49236CCE-4D59-4806-BCA2-2AAFB387F52F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0980E6D3-13E4-4190-AA05-E78723673C8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3072" yWindow="3072" windowWidth="17280" windowHeight="9420" activeTab="1" xr2:uid="{C5DC818E-8AB9-4D02-86E9-8C9248B295A5}"/>
+    <workbookView xWindow="1608" yWindow="1212" windowWidth="17280" windowHeight="9420" activeTab="1" xr2:uid="{C5DC818E-8AB9-4D02-86E9-8C9248B295A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -456,18 +456,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -531,25 +525,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -989,7 +982,7 @@
   <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G2"/>
+      <selection activeCell="B4" sqref="B4:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1003,13 +996,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -1058,13 +1051,13 @@
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="6" t="s">
         <v>67</v>
       </c>
       <c r="E4">
@@ -1098,13 +1091,13 @@
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="6" t="s">
         <v>69</v>
       </c>
       <c r="E6">
@@ -1198,13 +1191,13 @@
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="6" t="s">
         <v>73</v>
       </c>
       <c r="E11">
@@ -1218,13 +1211,13 @@
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="6" t="s">
         <v>62</v>
       </c>
       <c r="E12">
@@ -1238,13 +1231,13 @@
       <c r="A13">
         <v>11</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="6" t="s">
         <v>63</v>
       </c>
       <c r="E13">
@@ -1258,13 +1251,13 @@
       <c r="A14">
         <v>12</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="6" t="s">
         <v>64</v>
       </c>
       <c r="E14">
@@ -1278,13 +1271,13 @@
       <c r="A15">
         <v>13</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="6" t="s">
         <v>74</v>
       </c>
       <c r="E15">
@@ -1298,13 +1291,13 @@
       <c r="A16">
         <v>14</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="6" t="s">
         <v>62</v>
       </c>
       <c r="E16">
@@ -1318,13 +1311,13 @@
       <c r="A17">
         <v>15</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="6" t="s">
         <v>63</v>
       </c>
       <c r="E17">
@@ -1338,13 +1331,13 @@
       <c r="A18">
         <v>16</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="6" t="s">
         <v>75</v>
       </c>
       <c r="E18">
@@ -1358,13 +1351,13 @@
       <c r="A19">
         <v>17</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="6" t="s">
         <v>62</v>
       </c>
       <c r="E19">
@@ -1378,13 +1371,13 @@
       <c r="A20">
         <v>18</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="6" t="s">
         <v>64</v>
       </c>
       <c r="E20">
@@ -1398,13 +1391,13 @@
       <c r="A21">
         <v>19</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="6" t="s">
         <v>62</v>
       </c>
       <c r="E21">
@@ -1418,13 +1411,13 @@
       <c r="A22">
         <v>20</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="6" t="s">
         <v>65</v>
       </c>
       <c r="E22">
@@ -1438,13 +1431,13 @@
       <c r="A23">
         <v>21</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="6" t="s">
         <v>63</v>
       </c>
       <c r="E23">
@@ -1458,13 +1451,13 @@
       <c r="A24">
         <v>22</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="6" t="s">
         <v>64</v>
       </c>
       <c r="E24">
@@ -1478,13 +1471,13 @@
       <c r="A25">
         <v>23</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="6" t="s">
         <v>64</v>
       </c>
       <c r="E25">
@@ -1498,13 +1491,13 @@
       <c r="A26">
         <v>24</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="6" t="s">
         <v>64</v>
       </c>
       <c r="E26">
@@ -1518,13 +1511,13 @@
       <c r="A27">
         <v>25</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="6" t="s">
         <v>64</v>
       </c>
       <c r="E27">
@@ -1538,13 +1531,13 @@
       <c r="A28">
         <v>26</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="D28" s="6" t="s">
         <v>63</v>
       </c>
       <c r="E28">
@@ -1558,13 +1551,13 @@
       <c r="A29">
         <v>27</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="D29" s="6" t="s">
         <v>63</v>
       </c>
       <c r="E29">
@@ -1578,13 +1571,13 @@
       <c r="A30">
         <v>28</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="D30" s="6" t="s">
         <v>62</v>
       </c>
       <c r="E30">
@@ -1598,13 +1591,13 @@
       <c r="A31">
         <v>29</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D31" s="6" t="s">
         <v>65</v>
       </c>
       <c r="E31">
@@ -1618,13 +1611,13 @@
       <c r="A32">
         <v>30</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="D32" s="6" t="s">
         <v>62</v>
       </c>
       <c r="E32">
@@ -1638,13 +1631,13 @@
       <c r="A33">
         <v>31</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="D33" s="9" t="s">
+      <c r="D33" s="6" t="s">
         <v>65</v>
       </c>
       <c r="E33">
@@ -1658,13 +1651,13 @@
       <c r="A34">
         <v>32</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="D34" s="9" t="s">
+      <c r="D34" s="6" t="s">
         <v>62</v>
       </c>
       <c r="E34">
@@ -1678,13 +1671,13 @@
       <c r="A35">
         <v>33</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="D35" s="9" t="s">
+      <c r="D35" s="6" t="s">
         <v>62</v>
       </c>
       <c r="E35">
@@ -1698,13 +1691,13 @@
       <c r="A36">
         <v>34</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="D36" s="6" t="s">
         <v>65</v>
       </c>
       <c r="E36">
@@ -1718,13 +1711,13 @@
       <c r="A37">
         <v>35</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C37" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="D37" s="9" t="s">
+      <c r="D37" s="6" t="s">
         <v>65</v>
       </c>
       <c r="E37">
@@ -1738,13 +1731,13 @@
       <c r="A38">
         <v>36</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="C38" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="D38" s="9" t="s">
+      <c r="D38" s="6" t="s">
         <v>64</v>
       </c>
       <c r="E38">
@@ -1758,13 +1751,13 @@
       <c r="A39">
         <v>37</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C39" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D39" s="9" t="s">
+      <c r="D39" s="6" t="s">
         <v>76</v>
       </c>
       <c r="E39">
@@ -1778,13 +1771,13 @@
       <c r="A40">
         <v>38</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="C40" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="D40" s="9" t="s">
+      <c r="D40" s="6" t="s">
         <v>65</v>
       </c>
       <c r="E40">
@@ -1798,13 +1791,13 @@
       <c r="A41">
         <v>39</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="C41" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D41" s="9" t="s">
+      <c r="D41" s="6" t="s">
         <v>77</v>
       </c>
       <c r="E41">
@@ -1818,13 +1811,13 @@
       <c r="A42">
         <v>40</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C42" s="9" t="s">
+      <c r="C42" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="D42" s="9" t="s">
+      <c r="D42" s="6" t="s">
         <v>63</v>
       </c>
       <c r="E42">
@@ -1838,13 +1831,13 @@
       <c r="A43">
         <v>41</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C43" s="9" t="s">
+      <c r="C43" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="D43" s="9" t="s">
+      <c r="D43" s="6" t="s">
         <v>63</v>
       </c>
       <c r="E43">
@@ -1858,13 +1851,13 @@
       <c r="A44">
         <v>42</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="B44" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C44" s="9" t="s">
+      <c r="C44" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="D44" s="9" t="s">
+      <c r="D44" s="6" t="s">
         <v>78</v>
       </c>
       <c r="E44">
@@ -1878,13 +1871,13 @@
       <c r="A45">
         <v>43</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C45" s="9" t="s">
+      <c r="C45" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="D45" s="9" t="s">
+      <c r="D45" s="6" t="s">
         <v>64</v>
       </c>
       <c r="E45">
@@ -1898,13 +1891,13 @@
       <c r="A46">
         <v>44</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="B46" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C46" s="9" t="s">
+      <c r="C46" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="D46" s="9" t="s">
+      <c r="D46" s="6" t="s">
         <v>63</v>
       </c>
       <c r="E46">
@@ -1918,13 +1911,13 @@
       <c r="A47">
         <v>45</v>
       </c>
-      <c r="B47" s="9" t="s">
+      <c r="B47" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C47" s="9" t="s">
+      <c r="C47" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="D47" s="9" t="s">
+      <c r="D47" s="6" t="s">
         <v>65</v>
       </c>
       <c r="E47">
@@ -1957,25 +1950,25 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="5" t="s">
         <v>79</v>
       </c>
     </row>

--- a/Pokemon Supply Distribution.xlsx
+++ b/Pokemon Supply Distribution.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyFiles\00 - Projects\Dev\rumble\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{336557DD-3179-404F-B681-E02A0BD3E200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A08AC39B-251C-45B8-B250-203FC7F0D22D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{C5DC818E-8AB9-4D02-86E9-8C9248B295A5}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{C5DC818E-8AB9-4D02-86E9-8C9248B295A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="126">
   <si>
     <t>Zapdos</t>
   </si>
@@ -114,18 +114,6 @@
     <t>ID</t>
   </si>
   <si>
-    <t>1-Mythical</t>
-  </si>
-  <si>
-    <t>2-Legendary</t>
-  </si>
-  <si>
-    <t>3-Rare</t>
-  </si>
-  <si>
-    <t>4-Common</t>
-  </si>
-  <si>
     <t>Starter</t>
   </si>
   <si>
@@ -279,9 +267,6 @@
     <t>Type2</t>
   </si>
   <si>
-    <t>onup</t>
-  </si>
-  <si>
     <t>yopa</t>
   </si>
   <si>
@@ -427,6 +412,9 @@
   </si>
   <si>
     <t>skiddo</t>
+  </si>
+  <si>
+    <t>tuko</t>
   </si>
 </sst>
 </file>
@@ -988,10 +976,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9966805-79DB-4CCA-A5D2-3255ED92FDD9}">
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="K47" sqref="K47"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1002,9 +990,10 @@
     <col min="4" max="4" width="12.77734375" customWidth="1"/>
     <col min="5" max="5" width="7.21875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="32.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>4</v>
       </c>
@@ -1013,7 +1002,7 @@
       <c r="D1" s="11"/>
       <c r="E1" s="11"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -1021,10 +1010,10 @@
         <v>22</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>24</v>
@@ -1033,10 +1022,10 @@
         <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1044,19 +1033,23 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E3">
         <v>151</v>
       </c>
       <c r="F3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="I3" t="str">
+        <f>LOWER(_xlfn.CONCAT("p.create ",Table1[[#This Row],[ID]]," ",Table1[[#This Row],[Column1]]," ",Table1[[#This Row],[Rarity]]," ",1))</f>
+        <v>p.create 151 proto mythical 1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1064,19 +1057,23 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E4">
         <v>251</v>
       </c>
       <c r="F4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="I4" t="str">
+        <f>LOWER(_xlfn.CONCAT("p.create ",Table1[[#This Row],[ID]]," ",Table1[[#This Row],[Column1]]," ",Table1[[#This Row],[Rarity]]," ",1))</f>
+        <v>p.create 251 celestik mythical 1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1084,19 +1081,23 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E5">
         <v>385</v>
       </c>
       <c r="F5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="I5" t="str">
+        <f>LOWER(_xlfn.CONCAT("p.create ",Table1[[#This Row],[ID]]," ",Table1[[#This Row],[Column1]]," ",Table1[[#This Row],[Rarity]]," ",1))</f>
+        <v>p.create 385 jiratik mythical 1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1104,19 +1105,23 @@
         <v>8</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E6">
         <v>491</v>
       </c>
       <c r="F6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="I6" t="str">
+        <f>LOWER(_xlfn.CONCAT("p.create ",Table1[[#This Row],[ID]]," ",Table1[[#This Row],[Column1]]," ",Table1[[#This Row],[Rarity]]," ",1))</f>
+        <v>p.create 491 draco mythical 1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1124,19 +1129,23 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E7">
         <v>144</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="I7" t="str">
+        <f>LOWER(_xlfn.CONCAT("p.create ",Table1[[#This Row],[ID]]," ",Table1[[#This Row],[Column1]]," ",Table1[[#This Row],[Rarity]]," ",1))</f>
+        <v>p.create 144 articane legendary 1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1144,19 +1153,23 @@
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E8">
         <v>145</v>
       </c>
       <c r="F8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="I8" t="str">
+        <f>LOWER(_xlfn.CONCAT("p.create ",Table1[[#This Row],[ID]]," ",Table1[[#This Row],[Column1]]," ",Table1[[#This Row],[Rarity]]," ",1))</f>
+        <v>p.create 145 dagitab legendary 1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1164,19 +1177,23 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D9" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E9">
         <v>146</v>
       </c>
       <c r="F9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="I9" t="str">
+        <f>LOWER(_xlfn.CONCAT("p.create ",Table1[[#This Row],[ID]]," ",Table1[[#This Row],[Column1]]," ",Table1[[#This Row],[Rarity]]," ",1))</f>
+        <v>p.create 146 moltyte legendary 1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1184,239 +1201,287 @@
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D10" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E10">
         <v>150</v>
       </c>
       <c r="F10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="I10" t="str">
+        <f>LOWER(_xlfn.CONCAT("p.create ",Table1[[#This Row],[ID]]," ",Table1[[#This Row],[Column1]]," ",Table1[[#This Row],[Rarity]]," ",1))</f>
+        <v>p.create 150 protwo legendary 1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E11">
         <v>479</v>
       </c>
       <c r="F11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="I11" t="str">
+        <f>LOWER(_xlfn.CONCAT("p.create ",Table1[[#This Row],[ID]]," ",Table1[[#This Row],[Column1]]," ",Table1[[#This Row],[Rarity]]," ",1))</f>
+        <v>p.create 479 rhinome rare 1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E12">
         <v>135</v>
       </c>
       <c r="F12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="I12" t="str">
+        <f>LOWER(_xlfn.CONCAT("p.create ",Table1[[#This Row],[ID]]," ",Table1[[#This Row],[Column1]]," ",Table1[[#This Row],[Rarity]]," ",1))</f>
+        <v>p.create 135 jaguatone rare 1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E13">
         <v>134</v>
       </c>
       <c r="F13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="I13" t="str">
+        <f>LOWER(_xlfn.CONCAT("p.create ",Table1[[#This Row],[ID]]," ",Table1[[#This Row],[Column1]]," ",Table1[[#This Row],[Rarity]]," ",1))</f>
+        <v>p.create 134 vopari rare 1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E14">
         <v>497</v>
       </c>
       <c r="F14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="I14" t="str">
+        <f>LOWER(_xlfn.CONCAT("p.create ",Table1[[#This Row],[ID]]," ",Table1[[#This Row],[Column1]]," ",Table1[[#This Row],[Rarity]]," ",1))</f>
+        <v>p.create 497 saha rare 1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E15">
         <v>391</v>
       </c>
       <c r="F15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="I15" t="str">
+        <f>LOWER(_xlfn.CONCAT("p.create ",Table1[[#This Row],[ID]]," ",Table1[[#This Row],[Column1]]," ",Table1[[#This Row],[Rarity]]," ",1))</f>
+        <v>p.create 391 luwi rare 1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E16">
         <v>100</v>
       </c>
       <c r="F16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="I16" t="str">
+        <f>LOWER(_xlfn.CONCAT("p.create ",Table1[[#This Row],[ID]]," ",Table1[[#This Row],[Column1]]," ",Table1[[#This Row],[Rarity]]," ",1))</f>
+        <v>p.create 100 voltran rare 1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E17">
         <v>489</v>
       </c>
       <c r="F17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="I17" t="str">
+        <f>LOWER(_xlfn.CONCAT("p.create ",Table1[[#This Row],[ID]]," ",Table1[[#This Row],[Column1]]," ",Table1[[#This Row],[Rarity]]," ",1))</f>
+        <v>p.create 489 hypony rare 1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E18">
         <v>494</v>
       </c>
       <c r="F18" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="I18" t="str">
+        <f>LOWER(_xlfn.CONCAT("p.create ",Table1[[#This Row],[ID]]," ",Table1[[#This Row],[Column1]]," ",Table1[[#This Row],[Rarity]]," ",1))</f>
+        <v>p.create 494 venok rare 1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E19">
         <v>181</v>
       </c>
       <c r="F19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="I19" t="str">
+        <f>LOWER(_xlfn.CONCAT("p.create ",Table1[[#This Row],[ID]]," ",Table1[[#This Row],[Column1]]," ",Table1[[#This Row],[Rarity]]," ",1))</f>
+        <v>p.create 181 alphatross rare 1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E20">
         <v>331</v>
       </c>
       <c r="F20" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="I20" t="str">
+        <f>LOWER(_xlfn.CONCAT("p.create ",Table1[[#This Row],[ID]]," ",Table1[[#This Row],[Column1]]," ",Table1[[#This Row],[Rarity]]," ",1))</f>
+        <v>p.create 331 specinea rare 1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E21">
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="I21" t="str">
+        <f>LOWER(_xlfn.CONCAT("p.create ",Table1[[#This Row],[ID]]," ",Table1[[#This Row],[Column1]]," ",Table1[[#This Row],[Rarity]]," ",1))</f>
+        <v>p.create 1 corge common 1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1424,19 +1489,23 @@
         <v>9</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E22">
         <v>4</v>
       </c>
       <c r="F22" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="I22" t="str">
+        <f>LOWER(_xlfn.CONCAT("p.create ",Table1[[#This Row],[ID]]," ",Table1[[#This Row],[Column1]]," ",Table1[[#This Row],[Rarity]]," ",1))</f>
+        <v>p.create 4 salamazel common 1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1444,139 +1513,167 @@
         <v>10</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E23">
         <v>7</v>
       </c>
       <c r="F23" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="I23" t="str">
+        <f>LOWER(_xlfn.CONCAT("p.create ",Table1[[#This Row],[ID]]," ",Table1[[#This Row],[Column1]]," ",Table1[[#This Row],[Rarity]]," ",1))</f>
+        <v>p.create 7 blazter common 1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E24">
         <v>191</v>
       </c>
       <c r="F24" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="I24" t="str">
+        <f>LOWER(_xlfn.CONCAT("p.create ",Table1[[#This Row],[ID]]," ",Table1[[#This Row],[Column1]]," ",Table1[[#This Row],[Rarity]]," ",1))</f>
+        <v>p.create 191 sid common 1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E25">
         <v>252</v>
       </c>
       <c r="F25" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="I25" t="str">
+        <f>LOWER(_xlfn.CONCAT("p.create ",Table1[[#This Row],[ID]]," ",Table1[[#This Row],[Column1]]," ",Table1[[#This Row],[Rarity]]," ",1))</f>
+        <v>p.create 252 tuko common 1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E26">
         <v>549</v>
       </c>
       <c r="F26" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="I26" t="str">
+        <f>LOWER(_xlfn.CONCAT("p.create ",Table1[[#This Row],[ID]]," ",Table1[[#This Row],[Column1]]," ",Table1[[#This Row],[Rarity]]," ",1))</f>
+        <v>p.create 549 allily common 1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E27">
         <v>420</v>
       </c>
       <c r="F27" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="I27" t="str">
+        <f>LOWER(_xlfn.CONCAT("p.create ",Table1[[#This Row],[ID]]," ",Table1[[#This Row],[Column1]]," ",Table1[[#This Row],[Rarity]]," ",1))</f>
+        <v>p.create 420 keru-keru common 1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E28">
         <v>393</v>
       </c>
       <c r="F28" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="I28" t="str">
+        <f>LOWER(_xlfn.CONCAT("p.create ",Table1[[#This Row],[ID]]," ",Table1[[#This Row],[Column1]]," ",Table1[[#This Row],[Rarity]]," ",1))</f>
+        <v>p.create 393 pen-pen common 1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E29">
         <v>60</v>
       </c>
       <c r="F29" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="I29" t="str">
+        <f>LOWER(_xlfn.CONCAT("p.create ",Table1[[#This Row],[ID]]," ",Table1[[#This Row],[Column1]]," ",Table1[[#This Row],[Rarity]]," ",1))</f>
+        <v>p.create 60 polydent common 1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1584,119 +1681,143 @@
         <v>12</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E30">
         <v>25</v>
       </c>
       <c r="F30" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="I30" t="str">
+        <f>LOWER(_xlfn.CONCAT("p.create ",Table1[[#This Row],[ID]]," ",Table1[[#This Row],[Column1]]," ",Table1[[#This Row],[Rarity]]," ",1))</f>
+        <v>p.create 25 wats common 1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E31">
         <v>155</v>
       </c>
       <c r="F31" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="I31" t="str">
+        <f>LOWER(_xlfn.CONCAT("p.create ",Table1[[#This Row],[ID]]," ",Table1[[#This Row],[Column1]]," ",Table1[[#This Row],[Rarity]]," ",1))</f>
+        <v>p.create 155 quiltile common 1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E32">
         <v>404</v>
       </c>
       <c r="F32" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="I32" t="str">
+        <f>LOWER(_xlfn.CONCAT("p.create ",Table1[[#This Row],[ID]]," ",Table1[[#This Row],[Column1]]," ",Table1[[#This Row],[Rarity]]," ",1))</f>
+        <v>p.create 404 luxious common 1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>31</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E33">
         <v>725</v>
       </c>
       <c r="F33" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="I33" t="str">
+        <f>LOWER(_xlfn.CONCAT("p.create ",Table1[[#This Row],[ID]]," ",Table1[[#This Row],[Column1]]," ",Table1[[#This Row],[Rarity]]," ",1))</f>
+        <v>p.create 725 menggay common 1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>32</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E34">
         <v>239</v>
       </c>
       <c r="F34" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="I34" t="str">
+        <f>LOWER(_xlfn.CONCAT("p.create ",Table1[[#This Row],[ID]]," ",Table1[[#This Row],[Column1]]," ",Table1[[#This Row],[Rarity]]," ",1))</f>
+        <v>p.create 239 zapzap common 1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>33</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E35">
         <v>417</v>
       </c>
       <c r="F35" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="I35" t="str">
+        <f>LOWER(_xlfn.CONCAT("p.create ",Table1[[#This Row],[ID]]," ",Table1[[#This Row],[Column1]]," ",Table1[[#This Row],[Rarity]]," ",1))</f>
+        <v>p.create 417 pandarkness common 1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>34</v>
       </c>
@@ -1704,119 +1825,143 @@
         <v>11</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E36">
         <v>58</v>
       </c>
       <c r="F36" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="I36" t="str">
+        <f>LOWER(_xlfn.CONCAT("p.create ",Table1[[#This Row],[ID]]," ",Table1[[#This Row],[Column1]]," ",Table1[[#This Row],[Rarity]]," ",1))</f>
+        <v>p.create 58 growela common 1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>35</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E37">
         <v>37</v>
       </c>
       <c r="F37" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="I37" t="str">
+        <f>LOWER(_xlfn.CONCAT("p.create ",Table1[[#This Row],[ID]]," ",Table1[[#This Row],[Column1]]," ",Table1[[#This Row],[Rarity]]," ",1))</f>
+        <v>p.create 37 yopa common 1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>36</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E38">
         <v>69</v>
       </c>
       <c r="F38" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="I38" t="str">
+        <f>LOWER(_xlfn.CONCAT("p.create ",Table1[[#This Row],[ID]]," ",Table1[[#This Row],[Column1]]," ",Table1[[#This Row],[Rarity]]," ",1))</f>
+        <v>p.create 69 mooshi common 1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>37</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E39">
         <v>607</v>
       </c>
       <c r="F39" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="I39" t="str">
+        <f>LOWER(_xlfn.CONCAT("p.create ",Table1[[#This Row],[ID]]," ",Table1[[#This Row],[Column1]]," ",Table1[[#This Row],[Rarity]]," ",1))</f>
+        <v>p.create 607 alidnak common 1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>38</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E40">
         <v>255</v>
       </c>
       <c r="F40" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="I40" t="str">
+        <f>LOWER(_xlfn.CONCAT("p.create ",Table1[[#This Row],[ID]]," ",Table1[[#This Row],[Column1]]," ",Table1[[#This Row],[Rarity]]," ",1))</f>
+        <v>p.create 255 chickotik common 1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>39</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E41">
         <v>194</v>
       </c>
       <c r="F41" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="I41" t="str">
+        <f>LOWER(_xlfn.CONCAT("p.create ",Table1[[#This Row],[ID]]," ",Table1[[#This Row],[Column1]]," ",Table1[[#This Row],[Rarity]]," ",1))</f>
+        <v>p.create 194 gibut common 1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>40</v>
       </c>
@@ -1824,50 +1969,58 @@
         <v>13</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E42">
         <v>116</v>
       </c>
       <c r="F42" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="I42" t="str">
+        <f>LOWER(_xlfn.CONCAT("p.create ",Table1[[#This Row],[ID]]," ",Table1[[#This Row],[Column1]]," ",Table1[[#This Row],[Rarity]]," ",1))</f>
+        <v>p.create 116 hooray common 1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>41</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E43">
         <v>129</v>
       </c>
       <c r="F43" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="I43" t="str">
+        <f>LOWER(_xlfn.CONCAT("p.create ",Table1[[#This Row],[ID]]," ",Table1[[#This Row],[Column1]]," ",Table1[[#This Row],[Rarity]]," ",1))</f>
+        <v>p.create 129 magicilla common 1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>42</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E44">
         <v>81</v>
@@ -1875,65 +2028,81 @@
       <c r="F44" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I44" t="str">
+        <f>LOWER(_xlfn.CONCAT("p.create ",Table1[[#This Row],[ID]]," ",Table1[[#This Row],[Column1]]," ",Table1[[#This Row],[Rarity]]," ",1))</f>
+        <v>p.create 81 balani common 1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>43</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E45">
         <v>152</v>
       </c>
       <c r="F45" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="I45" t="str">
+        <f>LOWER(_xlfn.CONCAT("p.create ",Table1[[#This Row],[ID]]," ",Table1[[#This Row],[Column1]]," ",Table1[[#This Row],[Rarity]]," ",1))</f>
+        <v>p.create 152 chickama starter 1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>44</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E46">
         <v>258</v>
       </c>
       <c r="F46" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="I46" t="str">
+        <f>LOWER(_xlfn.CONCAT("p.create ",Table1[[#This Row],[ID]]," ",Table1[[#This Row],[Column1]]," ",Table1[[#This Row],[Rarity]]," ",1))</f>
+        <v>p.create 258 plok starter 1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>45</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E47">
         <v>653</v>
       </c>
       <c r="F47" t="s">
-        <v>29</v>
+        <v>25</v>
+      </c>
+      <c r="I47" t="str">
+        <f>LOWER(_xlfn.CONCAT("p.create ",Table1[[#This Row],[ID]]," ",Table1[[#This Row],[Column1]]," ",Table1[[#This Row],[Rarity]]," ",1))</f>
+        <v>p.create 653 fieros starter 1</v>
       </c>
     </row>
   </sheetData>
@@ -1966,10 +2135,10 @@
         <v>22</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E1" s="9" t="s">
         <v>24</v>
@@ -1978,7 +2147,7 @@
         <v>21</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -1986,10 +2155,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -1997,10 +2166,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -2008,10 +2177,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/Pokemon Supply Distribution.xlsx
+++ b/Pokemon Supply Distribution.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyFiles\00 - Projects\Dev\rumble\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A08AC39B-251C-45B8-B250-203FC7F0D22D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A50F36AD-7BA6-4202-BC52-FBB0BDF6F913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{C5DC818E-8AB9-4D02-86E9-8C9248B295A5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{C5DC818E-8AB9-4D02-86E9-8C9248B295A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -360,9 +360,6 @@
     <t>zapzap</t>
   </si>
   <si>
-    <t>pandarkness</t>
-  </si>
-  <si>
     <t>growela</t>
   </si>
   <si>
@@ -415,6 +412,9 @@
   </si>
   <si>
     <t>tuko</t>
+  </si>
+  <si>
+    <t>patchi</t>
   </si>
 </sst>
 </file>
@@ -976,10 +976,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9966805-79DB-4CCA-A5D2-3255ED92FDD9}">
-  <dimension ref="A1:I47"/>
+  <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -991,9 +991,10 @@
     <col min="5" max="5" width="7.21875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="32.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>4</v>
       </c>
@@ -1002,7 +1003,7 @@
       <c r="D1" s="11"/>
       <c r="E1" s="11"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -1025,7 +1026,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1048,8 +1049,12 @@
         <f>LOWER(_xlfn.CONCAT("p.create ",Table1[[#This Row],[ID]]," ",Table1[[#This Row],[Column1]]," ",Table1[[#This Row],[Rarity]]," ",1))</f>
         <v>p.create 151 proto mythical 1</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J3" t="str">
+        <f>LOWER(_xlfn.CONCAT("p.hi ",Table1[[#This Row],[Column1]]))</f>
+        <v>p.hi proto</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1072,8 +1077,12 @@
         <f>LOWER(_xlfn.CONCAT("p.create ",Table1[[#This Row],[ID]]," ",Table1[[#This Row],[Column1]]," ",Table1[[#This Row],[Rarity]]," ",1))</f>
         <v>p.create 251 celestik mythical 1</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J4" t="str">
+        <f>LOWER(_xlfn.CONCAT("p.hi ",Table1[[#This Row],[Column1]]))</f>
+        <v>p.hi celestik</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1096,8 +1105,12 @@
         <f>LOWER(_xlfn.CONCAT("p.create ",Table1[[#This Row],[ID]]," ",Table1[[#This Row],[Column1]]," ",Table1[[#This Row],[Rarity]]," ",1))</f>
         <v>p.create 385 jiratik mythical 1</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J5" t="str">
+        <f>LOWER(_xlfn.CONCAT("p.hi ",Table1[[#This Row],[Column1]]))</f>
+        <v>p.hi jiratik</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1120,8 +1133,12 @@
         <f>LOWER(_xlfn.CONCAT("p.create ",Table1[[#This Row],[ID]]," ",Table1[[#This Row],[Column1]]," ",Table1[[#This Row],[Rarity]]," ",1))</f>
         <v>p.create 491 draco mythical 1</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J6" t="str">
+        <f>LOWER(_xlfn.CONCAT("p.hi ",Table1[[#This Row],[Column1]]))</f>
+        <v>p.hi draco</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1144,8 +1161,12 @@
         <f>LOWER(_xlfn.CONCAT("p.create ",Table1[[#This Row],[ID]]," ",Table1[[#This Row],[Column1]]," ",Table1[[#This Row],[Rarity]]," ",1))</f>
         <v>p.create 144 articane legendary 1</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J7" t="str">
+        <f>LOWER(_xlfn.CONCAT("p.hi ",Table1[[#This Row],[Column1]]))</f>
+        <v>p.hi articane</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1168,8 +1189,12 @@
         <f>LOWER(_xlfn.CONCAT("p.create ",Table1[[#This Row],[ID]]," ",Table1[[#This Row],[Column1]]," ",Table1[[#This Row],[Rarity]]," ",1))</f>
         <v>p.create 145 dagitab legendary 1</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J8" t="str">
+        <f>LOWER(_xlfn.CONCAT("p.hi ",Table1[[#This Row],[Column1]]))</f>
+        <v>p.hi dagitab</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1192,8 +1217,12 @@
         <f>LOWER(_xlfn.CONCAT("p.create ",Table1[[#This Row],[ID]]," ",Table1[[#This Row],[Column1]]," ",Table1[[#This Row],[Rarity]]," ",1))</f>
         <v>p.create 146 moltyte legendary 1</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J9" t="str">
+        <f>LOWER(_xlfn.CONCAT("p.hi ",Table1[[#This Row],[Column1]]))</f>
+        <v>p.hi moltyte</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1216,8 +1245,12 @@
         <f>LOWER(_xlfn.CONCAT("p.create ",Table1[[#This Row],[ID]]," ",Table1[[#This Row],[Column1]]," ",Table1[[#This Row],[Rarity]]," ",1))</f>
         <v>p.create 150 protwo legendary 1</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J10" t="str">
+        <f>LOWER(_xlfn.CONCAT("p.hi ",Table1[[#This Row],[Column1]]))</f>
+        <v>p.hi protwo</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1240,8 +1273,12 @@
         <f>LOWER(_xlfn.CONCAT("p.create ",Table1[[#This Row],[ID]]," ",Table1[[#This Row],[Column1]]," ",Table1[[#This Row],[Rarity]]," ",1))</f>
         <v>p.create 479 rhinome rare 1</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J11" t="str">
+        <f>LOWER(_xlfn.CONCAT("p.hi ",Table1[[#This Row],[Column1]]))</f>
+        <v>p.hi rhinome</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1264,8 +1301,12 @@
         <f>LOWER(_xlfn.CONCAT("p.create ",Table1[[#This Row],[ID]]," ",Table1[[#This Row],[Column1]]," ",Table1[[#This Row],[Rarity]]," ",1))</f>
         <v>p.create 135 jaguatone rare 1</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J12" t="str">
+        <f>LOWER(_xlfn.CONCAT("p.hi ",Table1[[#This Row],[Column1]]))</f>
+        <v>p.hi jaguatone</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1288,8 +1329,12 @@
         <f>LOWER(_xlfn.CONCAT("p.create ",Table1[[#This Row],[ID]]," ",Table1[[#This Row],[Column1]]," ",Table1[[#This Row],[Rarity]]," ",1))</f>
         <v>p.create 134 vopari rare 1</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J13" t="str">
+        <f>LOWER(_xlfn.CONCAT("p.hi ",Table1[[#This Row],[Column1]]))</f>
+        <v>p.hi vopari</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1312,8 +1357,12 @@
         <f>LOWER(_xlfn.CONCAT("p.create ",Table1[[#This Row],[ID]]," ",Table1[[#This Row],[Column1]]," ",Table1[[#This Row],[Rarity]]," ",1))</f>
         <v>p.create 497 saha rare 1</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J14" t="str">
+        <f>LOWER(_xlfn.CONCAT("p.hi ",Table1[[#This Row],[Column1]]))</f>
+        <v>p.hi saha</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1321,7 +1370,7 @@
         <v>49</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>70</v>
@@ -1336,8 +1385,12 @@
         <f>LOWER(_xlfn.CONCAT("p.create ",Table1[[#This Row],[ID]]," ",Table1[[#This Row],[Column1]]," ",Table1[[#This Row],[Rarity]]," ",1))</f>
         <v>p.create 391 luwi rare 1</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J15" t="str">
+        <f>LOWER(_xlfn.CONCAT("p.hi ",Table1[[#This Row],[Column1]]))</f>
+        <v>p.hi luwi</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1360,8 +1413,12 @@
         <f>LOWER(_xlfn.CONCAT("p.create ",Table1[[#This Row],[ID]]," ",Table1[[#This Row],[Column1]]," ",Table1[[#This Row],[Rarity]]," ",1))</f>
         <v>p.create 100 voltran rare 1</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J16" t="str">
+        <f>LOWER(_xlfn.CONCAT("p.hi ",Table1[[#This Row],[Column1]]))</f>
+        <v>p.hi voltran</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1384,8 +1441,12 @@
         <f>LOWER(_xlfn.CONCAT("p.create ",Table1[[#This Row],[ID]]," ",Table1[[#This Row],[Column1]]," ",Table1[[#This Row],[Rarity]]," ",1))</f>
         <v>p.create 489 hypony rare 1</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J17" t="str">
+        <f>LOWER(_xlfn.CONCAT("p.hi ",Table1[[#This Row],[Column1]]))</f>
+        <v>p.hi hypony</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1408,8 +1469,12 @@
         <f>LOWER(_xlfn.CONCAT("p.create ",Table1[[#This Row],[ID]]," ",Table1[[#This Row],[Column1]]," ",Table1[[#This Row],[Rarity]]," ",1))</f>
         <v>p.create 494 venok rare 1</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J18" t="str">
+        <f>LOWER(_xlfn.CONCAT("p.hi ",Table1[[#This Row],[Column1]]))</f>
+        <v>p.hi venok</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1432,8 +1497,12 @@
         <f>LOWER(_xlfn.CONCAT("p.create ",Table1[[#This Row],[ID]]," ",Table1[[#This Row],[Column1]]," ",Table1[[#This Row],[Rarity]]," ",1))</f>
         <v>p.create 181 alphatross rare 1</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J19" t="str">
+        <f>LOWER(_xlfn.CONCAT("p.hi ",Table1[[#This Row],[Column1]]))</f>
+        <v>p.hi alphatross</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1456,32 +1525,40 @@
         <f>LOWER(_xlfn.CONCAT("p.create ",Table1[[#This Row],[ID]]," ",Table1[[#This Row],[Column1]]," ",Table1[[#This Row],[Rarity]]," ",1))</f>
         <v>p.create 331 specinea rare 1</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J20" t="str">
+        <f>LOWER(_xlfn.CONCAT("p.hi ",Table1[[#This Row],[Column1]]))</f>
+        <v>p.hi specinea</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>58</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>835</v>
       </c>
       <c r="F21" t="s">
         <v>20</v>
       </c>
       <c r="I21" t="str">
         <f>LOWER(_xlfn.CONCAT("p.create ",Table1[[#This Row],[ID]]," ",Table1[[#This Row],[Column1]]," ",Table1[[#This Row],[Rarity]]," ",1))</f>
-        <v>p.create 1 corge common 1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+        <v>p.create 835 corge common 1</v>
+      </c>
+      <c r="J21" t="str">
+        <f>LOWER(_xlfn.CONCAT("p.hi ",Table1[[#This Row],[Column1]]))</f>
+        <v>p.hi corge</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1504,8 +1581,12 @@
         <f>LOWER(_xlfn.CONCAT("p.create ",Table1[[#This Row],[ID]]," ",Table1[[#This Row],[Column1]]," ",Table1[[#This Row],[Rarity]]," ",1))</f>
         <v>p.create 4 salamazel common 1</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J22" t="str">
+        <f>LOWER(_xlfn.CONCAT("p.hi ",Table1[[#This Row],[Column1]]))</f>
+        <v>p.hi salamazel</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1528,8 +1609,12 @@
         <f>LOWER(_xlfn.CONCAT("p.create ",Table1[[#This Row],[ID]]," ",Table1[[#This Row],[Column1]]," ",Table1[[#This Row],[Rarity]]," ",1))</f>
         <v>p.create 7 blazter common 1</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J23" t="str">
+        <f>LOWER(_xlfn.CONCAT("p.hi ",Table1[[#This Row],[Column1]]))</f>
+        <v>p.hi blazter</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1552,8 +1637,12 @@
         <f>LOWER(_xlfn.CONCAT("p.create ",Table1[[#This Row],[ID]]," ",Table1[[#This Row],[Column1]]," ",Table1[[#This Row],[Rarity]]," ",1))</f>
         <v>p.create 191 sid common 1</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J24" t="str">
+        <f>LOWER(_xlfn.CONCAT("p.hi ",Table1[[#This Row],[Column1]]))</f>
+        <v>p.hi sid</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1561,7 +1650,7 @@
         <v>27</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>60</v>
@@ -1576,8 +1665,12 @@
         <f>LOWER(_xlfn.CONCAT("p.create ",Table1[[#This Row],[ID]]," ",Table1[[#This Row],[Column1]]," ",Table1[[#This Row],[Rarity]]," ",1))</f>
         <v>p.create 252 tuko common 1</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J25" t="str">
+        <f>LOWER(_xlfn.CONCAT("p.hi ",Table1[[#This Row],[Column1]]))</f>
+        <v>p.hi tuko</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1600,8 +1693,12 @@
         <f>LOWER(_xlfn.CONCAT("p.create ",Table1[[#This Row],[ID]]," ",Table1[[#This Row],[Column1]]," ",Table1[[#This Row],[Rarity]]," ",1))</f>
         <v>p.create 549 allily common 1</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J26" t="str">
+        <f>LOWER(_xlfn.CONCAT("p.hi ",Table1[[#This Row],[Column1]]))</f>
+        <v>p.hi allily</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1624,8 +1721,12 @@
         <f>LOWER(_xlfn.CONCAT("p.create ",Table1[[#This Row],[ID]]," ",Table1[[#This Row],[Column1]]," ",Table1[[#This Row],[Rarity]]," ",1))</f>
         <v>p.create 420 keru-keru common 1</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J27" t="str">
+        <f>LOWER(_xlfn.CONCAT("p.hi ",Table1[[#This Row],[Column1]]))</f>
+        <v>p.hi keru-keru</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1648,8 +1749,12 @@
         <f>LOWER(_xlfn.CONCAT("p.create ",Table1[[#This Row],[ID]]," ",Table1[[#This Row],[Column1]]," ",Table1[[#This Row],[Rarity]]," ",1))</f>
         <v>p.create 393 pen-pen common 1</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J28" t="str">
+        <f>LOWER(_xlfn.CONCAT("p.hi ",Table1[[#This Row],[Column1]]))</f>
+        <v>p.hi pen-pen</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1672,8 +1777,12 @@
         <f>LOWER(_xlfn.CONCAT("p.create ",Table1[[#This Row],[ID]]," ",Table1[[#This Row],[Column1]]," ",Table1[[#This Row],[Rarity]]," ",1))</f>
         <v>p.create 60 polydent common 1</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J29" t="str">
+        <f>LOWER(_xlfn.CONCAT("p.hi ",Table1[[#This Row],[Column1]]))</f>
+        <v>p.hi polydent</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1696,8 +1805,12 @@
         <f>LOWER(_xlfn.CONCAT("p.create ",Table1[[#This Row],[ID]]," ",Table1[[#This Row],[Column1]]," ",Table1[[#This Row],[Rarity]]," ",1))</f>
         <v>p.create 25 wats common 1</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J30" t="str">
+        <f>LOWER(_xlfn.CONCAT("p.hi ",Table1[[#This Row],[Column1]]))</f>
+        <v>p.hi wats</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
@@ -1720,8 +1833,12 @@
         <f>LOWER(_xlfn.CONCAT("p.create ",Table1[[#This Row],[ID]]," ",Table1[[#This Row],[Column1]]," ",Table1[[#This Row],[Rarity]]," ",1))</f>
         <v>p.create 155 quiltile common 1</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J31" t="str">
+        <f>LOWER(_xlfn.CONCAT("p.hi ",Table1[[#This Row],[Column1]]))</f>
+        <v>p.hi quiltile</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
@@ -1744,8 +1861,12 @@
         <f>LOWER(_xlfn.CONCAT("p.create ",Table1[[#This Row],[ID]]," ",Table1[[#This Row],[Column1]]," ",Table1[[#This Row],[Rarity]]," ",1))</f>
         <v>p.create 404 luxious common 1</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J32" t="str">
+        <f>LOWER(_xlfn.CONCAT("p.hi ",Table1[[#This Row],[Column1]]))</f>
+        <v>p.hi luxious</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>31</v>
       </c>
@@ -1753,7 +1874,7 @@
         <v>37</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>61</v>
@@ -1768,8 +1889,12 @@
         <f>LOWER(_xlfn.CONCAT("p.create ",Table1[[#This Row],[ID]]," ",Table1[[#This Row],[Column1]]," ",Table1[[#This Row],[Rarity]]," ",1))</f>
         <v>p.create 725 menggay common 1</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J33" t="str">
+        <f>LOWER(_xlfn.CONCAT("p.hi ",Table1[[#This Row],[Column1]]))</f>
+        <v>p.hi menggay</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>32</v>
       </c>
@@ -1792,8 +1917,12 @@
         <f>LOWER(_xlfn.CONCAT("p.create ",Table1[[#This Row],[ID]]," ",Table1[[#This Row],[Column1]]," ",Table1[[#This Row],[Rarity]]," ",1))</f>
         <v>p.create 239 zapzap common 1</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J34" t="str">
+        <f>LOWER(_xlfn.CONCAT("p.hi ",Table1[[#This Row],[Column1]]))</f>
+        <v>p.hi zapzap</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>33</v>
       </c>
@@ -1801,7 +1930,7 @@
         <v>33</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>58</v>
@@ -1814,10 +1943,14 @@
       </c>
       <c r="I35" t="str">
         <f>LOWER(_xlfn.CONCAT("p.create ",Table1[[#This Row],[ID]]," ",Table1[[#This Row],[Column1]]," ",Table1[[#This Row],[Rarity]]," ",1))</f>
-        <v>p.create 417 pandarkness common 1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+        <v>p.create 417 patchi common 1</v>
+      </c>
+      <c r="J35" t="str">
+        <f>LOWER(_xlfn.CONCAT("p.hi ",Table1[[#This Row],[Column1]]))</f>
+        <v>p.hi patchi</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>34</v>
       </c>
@@ -1825,7 +1958,7 @@
         <v>11</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D36" s="7" t="s">
         <v>61</v>
@@ -1840,8 +1973,12 @@
         <f>LOWER(_xlfn.CONCAT("p.create ",Table1[[#This Row],[ID]]," ",Table1[[#This Row],[Column1]]," ",Table1[[#This Row],[Rarity]]," ",1))</f>
         <v>p.create 58 growela common 1</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J36" t="str">
+        <f>LOWER(_xlfn.CONCAT("p.hi ",Table1[[#This Row],[Column1]]))</f>
+        <v>p.hi growela</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>35</v>
       </c>
@@ -1864,32 +2001,40 @@
         <f>LOWER(_xlfn.CONCAT("p.create ",Table1[[#This Row],[ID]]," ",Table1[[#This Row],[Column1]]," ",Table1[[#This Row],[Rarity]]," ",1))</f>
         <v>p.create 37 yopa common 1</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J37" t="str">
+        <f>LOWER(_xlfn.CONCAT("p.hi ",Table1[[#This Row],[Column1]]))</f>
+        <v>p.hi yopa</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>36</v>
       </c>
       <c r="B38" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C38" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="D38" s="7" t="s">
         <v>60</v>
       </c>
       <c r="E38">
-        <v>69</v>
+        <v>285</v>
       </c>
       <c r="F38" t="s">
         <v>20</v>
       </c>
       <c r="I38" t="str">
         <f>LOWER(_xlfn.CONCAT("p.create ",Table1[[#This Row],[ID]]," ",Table1[[#This Row],[Column1]]," ",Table1[[#This Row],[Rarity]]," ",1))</f>
-        <v>p.create 69 mooshi common 1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+        <v>p.create 285 mooshi common 1</v>
+      </c>
+      <c r="J38" t="str">
+        <f>LOWER(_xlfn.CONCAT("p.hi ",Table1[[#This Row],[Column1]]))</f>
+        <v>p.hi mooshi</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>37</v>
       </c>
@@ -1912,8 +2057,12 @@
         <f>LOWER(_xlfn.CONCAT("p.create ",Table1[[#This Row],[ID]]," ",Table1[[#This Row],[Column1]]," ",Table1[[#This Row],[Rarity]]," ",1))</f>
         <v>p.create 607 alidnak common 1</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J39" t="str">
+        <f>LOWER(_xlfn.CONCAT("p.hi ",Table1[[#This Row],[Column1]]))</f>
+        <v>p.hi alidnak</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>38</v>
       </c>
@@ -1921,7 +2070,7 @@
         <v>40</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D40" s="7" t="s">
         <v>61</v>
@@ -1936,8 +2085,12 @@
         <f>LOWER(_xlfn.CONCAT("p.create ",Table1[[#This Row],[ID]]," ",Table1[[#This Row],[Column1]]," ",Table1[[#This Row],[Rarity]]," ",1))</f>
         <v>p.create 255 chickotik common 1</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J40" t="str">
+        <f>LOWER(_xlfn.CONCAT("p.hi ",Table1[[#This Row],[Column1]]))</f>
+        <v>p.hi chickotik</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>39</v>
       </c>
@@ -1960,8 +2113,12 @@
         <f>LOWER(_xlfn.CONCAT("p.create ",Table1[[#This Row],[ID]]," ",Table1[[#This Row],[Column1]]," ",Table1[[#This Row],[Rarity]]," ",1))</f>
         <v>p.create 194 gibut common 1</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J41" t="str">
+        <f>LOWER(_xlfn.CONCAT("p.hi ",Table1[[#This Row],[Column1]]))</f>
+        <v>p.hi gibut</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>40</v>
       </c>
@@ -1969,7 +2126,7 @@
         <v>13</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D42" s="7" t="s">
         <v>59</v>
@@ -1984,8 +2141,12 @@
         <f>LOWER(_xlfn.CONCAT("p.create ",Table1[[#This Row],[ID]]," ",Table1[[#This Row],[Column1]]," ",Table1[[#This Row],[Rarity]]," ",1))</f>
         <v>p.create 116 hooray common 1</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J42" t="str">
+        <f>LOWER(_xlfn.CONCAT("p.hi ",Table1[[#This Row],[Column1]]))</f>
+        <v>p.hi hooray</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>41</v>
       </c>
@@ -1993,7 +2154,7 @@
         <v>42</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D43" s="7" t="s">
         <v>59</v>
@@ -2008,8 +2169,12 @@
         <f>LOWER(_xlfn.CONCAT("p.create ",Table1[[#This Row],[ID]]," ",Table1[[#This Row],[Column1]]," ",Table1[[#This Row],[Rarity]]," ",1))</f>
         <v>p.create 129 magicilla common 1</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J43" t="str">
+        <f>LOWER(_xlfn.CONCAT("p.hi ",Table1[[#This Row],[Column1]]))</f>
+        <v>p.hi magicilla</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>42</v>
       </c>
@@ -2017,7 +2182,7 @@
         <v>43</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D44" s="7" t="s">
         <v>74</v>
@@ -2032,8 +2197,12 @@
         <f>LOWER(_xlfn.CONCAT("p.create ",Table1[[#This Row],[ID]]," ",Table1[[#This Row],[Column1]]," ",Table1[[#This Row],[Rarity]]," ",1))</f>
         <v>p.create 81 balani common 1</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J44" t="str">
+        <f>LOWER(_xlfn.CONCAT("p.hi ",Table1[[#This Row],[Column1]]))</f>
+        <v>p.hi balani</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>43</v>
       </c>
@@ -2041,7 +2210,7 @@
         <v>26</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D45" s="7" t="s">
         <v>60</v>
@@ -2056,8 +2225,12 @@
         <f>LOWER(_xlfn.CONCAT("p.create ",Table1[[#This Row],[ID]]," ",Table1[[#This Row],[Column1]]," ",Table1[[#This Row],[Rarity]]," ",1))</f>
         <v>p.create 152 chickama starter 1</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J45" t="str">
+        <f>LOWER(_xlfn.CONCAT("p.hi ",Table1[[#This Row],[Column1]]))</f>
+        <v>p.hi chickama</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>44</v>
       </c>
@@ -2065,7 +2238,7 @@
         <v>29</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D46" s="7" t="s">
         <v>59</v>
@@ -2080,8 +2253,12 @@
         <f>LOWER(_xlfn.CONCAT("p.create ",Table1[[#This Row],[ID]]," ",Table1[[#This Row],[Column1]]," ",Table1[[#This Row],[Rarity]]," ",1))</f>
         <v>p.create 258 plok starter 1</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J46" t="str">
+        <f>LOWER(_xlfn.CONCAT("p.hi ",Table1[[#This Row],[Column1]]))</f>
+        <v>p.hi plok</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>45</v>
       </c>
@@ -2089,7 +2266,7 @@
         <v>28</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D47" s="7" t="s">
         <v>61</v>
@@ -2103,6 +2280,10 @@
       <c r="I47" t="str">
         <f>LOWER(_xlfn.CONCAT("p.create ",Table1[[#This Row],[ID]]," ",Table1[[#This Row],[Column1]]," ",Table1[[#This Row],[Rarity]]," ",1))</f>
         <v>p.create 653 fieros starter 1</v>
+      </c>
+      <c r="J47" t="str">
+        <f>LOWER(_xlfn.CONCAT("p.hi ",Table1[[#This Row],[Column1]]))</f>
+        <v>p.hi fieros</v>
       </c>
     </row>
   </sheetData>
@@ -2155,7 +2336,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D2" t="s">
         <v>59</v>
@@ -2166,7 +2347,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D3" t="s">
         <v>60</v>
@@ -2177,7 +2358,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D4" t="s">
         <v>60</v>

--- a/Pokemon Supply Distribution.xlsx
+++ b/Pokemon Supply Distribution.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyFiles\00 - Projects\Dev\rumble\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A50F36AD-7BA6-4202-BC52-FBB0BDF6F913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BFB224A-3AAB-4099-9C5D-A07FD77991D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{C5DC818E-8AB9-4D02-86E9-8C9248B295A5}"/>
   </bookViews>
@@ -348,9 +348,6 @@
     <t>polydent</t>
   </si>
   <si>
-    <t>wats</t>
-  </si>
-  <si>
     <t>quiltile</t>
   </si>
   <si>
@@ -399,9 +396,6 @@
     <t>yamper</t>
   </si>
   <si>
-    <t>corge</t>
-  </si>
-  <si>
     <t>surskit</t>
   </si>
   <si>
@@ -415,6 +409,12 @@
   </si>
   <si>
     <t>patchi</t>
+  </si>
+  <si>
+    <t>mavi</t>
+  </si>
+  <si>
+    <t>watts</t>
   </si>
 </sst>
 </file>
@@ -978,8 +978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9966805-79DB-4CCA-A5D2-3255ED92FDD9}">
   <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1370,7 +1370,7 @@
         <v>49</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>70</v>
@@ -1535,10 +1535,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>58</v>
@@ -1551,11 +1551,11 @@
       </c>
       <c r="I21" t="str">
         <f>LOWER(_xlfn.CONCAT("p.create ",Table1[[#This Row],[ID]]," ",Table1[[#This Row],[Column1]]," ",Table1[[#This Row],[Rarity]]," ",1))</f>
-        <v>p.create 835 corge common 1</v>
+        <v>p.create 835 mavi common 1</v>
       </c>
       <c r="J21" t="str">
         <f>LOWER(_xlfn.CONCAT("p.hi ",Table1[[#This Row],[Column1]]))</f>
-        <v>p.hi corge</v>
+        <v>p.hi mavi</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -1650,7 +1650,7 @@
         <v>27</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>60</v>
@@ -1790,7 +1790,7 @@
         <v>12</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>58</v>
@@ -1803,11 +1803,11 @@
       </c>
       <c r="I30" t="str">
         <f>LOWER(_xlfn.CONCAT("p.create ",Table1[[#This Row],[ID]]," ",Table1[[#This Row],[Column1]]," ",Table1[[#This Row],[Rarity]]," ",1))</f>
-        <v>p.create 25 wats common 1</v>
+        <v>p.create 25 watts common 1</v>
       </c>
       <c r="J30" t="str">
         <f>LOWER(_xlfn.CONCAT("p.hi ",Table1[[#This Row],[Column1]]))</f>
-        <v>p.hi wats</v>
+        <v>p.hi watts</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
@@ -1818,7 +1818,7 @@
         <v>36</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>61</v>
@@ -1846,7 +1846,7 @@
         <v>45</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D32" s="7" t="s">
         <v>58</v>
@@ -1874,7 +1874,7 @@
         <v>37</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>61</v>
@@ -1902,7 +1902,7 @@
         <v>32</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D34" s="7" t="s">
         <v>58</v>
@@ -1930,7 +1930,7 @@
         <v>33</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>58</v>
@@ -1958,7 +1958,7 @@
         <v>11</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D36" s="7" t="s">
         <v>61</v>
@@ -2011,10 +2011,10 @@
         <v>36</v>
       </c>
       <c r="B38" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C38" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="D38" s="7" t="s">
         <v>60</v>
@@ -2070,7 +2070,7 @@
         <v>40</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D40" s="7" t="s">
         <v>61</v>
@@ -2126,7 +2126,7 @@
         <v>13</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D42" s="7" t="s">
         <v>59</v>
@@ -2154,7 +2154,7 @@
         <v>42</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D43" s="7" t="s">
         <v>59</v>
@@ -2182,7 +2182,7 @@
         <v>43</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D44" s="7" t="s">
         <v>74</v>
@@ -2210,7 +2210,7 @@
         <v>26</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D45" s="7" t="s">
         <v>60</v>
@@ -2238,7 +2238,7 @@
         <v>29</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D46" s="7" t="s">
         <v>59</v>
@@ -2266,7 +2266,7 @@
         <v>28</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D47" s="7" t="s">
         <v>61</v>
@@ -2336,7 +2336,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D2" t="s">
         <v>59</v>
@@ -2347,7 +2347,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D3" t="s">
         <v>60</v>
@@ -2358,7 +2358,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D4" t="s">
         <v>60</v>

--- a/Pokemon Supply Distribution.xlsx
+++ b/Pokemon Supply Distribution.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyFiles\00 - Projects\Dev\rumble\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ellaine Grace Salisi\Desktop\git\rumble\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BFB224A-3AAB-4099-9C5D-A07FD77991D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D25CFA6-7C59-4C0C-8145-5181D77FFA41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{C5DC818E-8AB9-4D02-86E9-8C9248B295A5}"/>
+    <workbookView xWindow="885" yWindow="2145" windowWidth="21600" windowHeight="11835" activeTab="1" xr2:uid="{C5DC818E-8AB9-4D02-86E9-8C9248B295A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -881,9 +881,9 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>14</v>
       </c>
@@ -891,7 +891,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -909,7 +909,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -927,7 +927,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -945,7 +945,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -963,7 +963,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E6">
         <f>SUM(E2:E5)</f>
         <v>1000</v>
@@ -978,23 +978,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9966805-79DB-4CCA-A5D2-3255ED92FDD9}">
   <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.77734375" customWidth="1"/>
-    <col min="5" max="5" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="32.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>4</v>
       </c>
@@ -1003,7 +1002,7 @@
       <c r="D1" s="11"/>
       <c r="E1" s="11"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -1026,7 +1025,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1054,7 +1053,7 @@
         <v>p.hi proto</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1082,7 +1081,7 @@
         <v>p.hi celestik</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1110,7 +1109,7 @@
         <v>p.hi jiratik</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1138,17 +1137,17 @@
         <v>p.hi draco</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="7" t="s">
         <v>66</v>
       </c>
       <c r="E7">
@@ -1166,17 +1165,17 @@
         <v>p.hi articane</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="7" t="s">
         <v>67</v>
       </c>
       <c r="E8">
@@ -1194,17 +1193,17 @@
         <v>p.hi dagitab</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="7" t="s">
         <v>68</v>
       </c>
       <c r="E9">
@@ -1222,17 +1221,17 @@
         <v>p.hi moltyte</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="7" t="s">
         <v>62</v>
       </c>
       <c r="E10">
@@ -1250,7 +1249,7 @@
         <v>p.hi protwo</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1278,7 +1277,7 @@
         <v>p.hi rhinome</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1306,7 +1305,7 @@
         <v>p.hi jaguatone</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1334,7 +1333,7 @@
         <v>p.hi vopari</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1362,7 +1361,7 @@
         <v>p.hi saha</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1390,7 +1389,7 @@
         <v>p.hi luwi</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1418,7 +1417,7 @@
         <v>p.hi voltran</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1446,7 +1445,7 @@
         <v>p.hi hypony</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1474,7 +1473,7 @@
         <v>p.hi venok</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1502,7 +1501,7 @@
         <v>p.hi alphatross</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1530,7 +1529,7 @@
         <v>p.hi specinea</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1558,7 +1557,7 @@
         <v>p.hi mavi</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1586,7 +1585,7 @@
         <v>p.hi salamazel</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1614,7 +1613,7 @@
         <v>p.hi blazter</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1642,7 +1641,7 @@
         <v>p.hi sid</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1670,7 +1669,7 @@
         <v>p.hi tuko</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1698,7 +1697,7 @@
         <v>p.hi allily</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1726,7 +1725,7 @@
         <v>p.hi keru-keru</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1754,7 +1753,7 @@
         <v>p.hi pen-pen</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1782,7 +1781,7 @@
         <v>p.hi polydent</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1810,7 +1809,7 @@
         <v>p.hi watts</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -1838,7 +1837,7 @@
         <v>p.hi quiltile</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -1866,7 +1865,7 @@
         <v>p.hi luxious</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
@@ -1894,7 +1893,7 @@
         <v>p.hi menggay</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
@@ -1922,7 +1921,7 @@
         <v>p.hi zapzap</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -1950,7 +1949,7 @@
         <v>p.hi patchi</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
@@ -1978,7 +1977,7 @@
         <v>p.hi growela</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
@@ -2006,7 +2005,7 @@
         <v>p.hi yopa</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
@@ -2034,7 +2033,7 @@
         <v>p.hi mooshi</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
@@ -2062,7 +2061,7 @@
         <v>p.hi alidnak</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
@@ -2090,7 +2089,7 @@
         <v>p.hi chickotik</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
@@ -2118,7 +2117,7 @@
         <v>p.hi gibut</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
@@ -2146,7 +2145,7 @@
         <v>p.hi hooray</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
@@ -2174,7 +2173,7 @@
         <v>p.hi magicilla</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
@@ -2202,7 +2201,7 @@
         <v>p.hi balani</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
@@ -2230,7 +2229,7 @@
         <v>p.hi chickama</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
@@ -2258,7 +2257,7 @@
         <v>p.hi plok</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
@@ -2306,9 +2305,9 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>23</v>
       </c>
@@ -2331,7 +2330,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2342,7 +2341,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2353,7 +2352,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>

--- a/Pokemon Supply Distribution.xlsx
+++ b/Pokemon Supply Distribution.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ellaine Grace Salisi\Desktop\git\rumble\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyFiles\00 - Projects\Dev\rumble\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D25CFA6-7C59-4C0C-8145-5181D77FFA41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E0690E5-CA23-404E-8508-F2270FD539EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="885" yWindow="2145" windowWidth="21600" windowHeight="11835" activeTab="1" xr2:uid="{C5DC818E-8AB9-4D02-86E9-8C9248B295A5}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{C5DC818E-8AB9-4D02-86E9-8C9248B295A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -282,21 +282,9 @@
     <t>celestik</t>
   </si>
   <si>
-    <t>jiratik</t>
-  </si>
-  <si>
-    <t>draco</t>
-  </si>
-  <si>
-    <t>articane</t>
-  </si>
-  <si>
     <t>dagitab</t>
   </si>
   <si>
-    <t>moltyte</t>
-  </si>
-  <si>
     <t>protwo</t>
   </si>
   <si>
@@ -415,6 +403,18 @@
   </si>
   <si>
     <t>watts</t>
+  </si>
+  <si>
+    <t>quartzan</t>
+  </si>
+  <si>
+    <t>azrure</t>
+  </si>
+  <si>
+    <t>diwa</t>
+  </si>
+  <si>
+    <t>milid</t>
   </si>
 </sst>
 </file>
@@ -881,9 +881,9 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
         <v>14</v>
       </c>
@@ -891,7 +891,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -909,7 +909,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -927,7 +927,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -945,7 +945,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -963,7 +963,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E6">
         <f>SUM(E2:E5)</f>
         <v>1000</v>
@@ -979,21 +979,21 @@
   <dimension ref="A1:J47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:D8"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12.7109375" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="32.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>4</v>
       </c>
@@ -1002,7 +1002,7 @@
       <c r="D1" s="11"/>
       <c r="E1" s="11"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -1025,7 +1025,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1053,7 +1053,7 @@
         <v>p.hi proto</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1081,7 +1081,7 @@
         <v>p.hi celestik</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1089,7 +1089,7 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>81</v>
+        <v>124</v>
       </c>
       <c r="D5" t="s">
         <v>64</v>
@@ -1102,14 +1102,14 @@
       </c>
       <c r="I5" t="str">
         <f>LOWER(_xlfn.CONCAT("p.create ",Table1[[#This Row],[ID]]," ",Table1[[#This Row],[Column1]]," ",Table1[[#This Row],[Rarity]]," ",1))</f>
-        <v>p.create 385 jiratik mythical 1</v>
+        <v>p.create 385 diwa mythical 1</v>
       </c>
       <c r="J5" t="str">
         <f>LOWER(_xlfn.CONCAT("p.hi ",Table1[[#This Row],[Column1]]))</f>
-        <v>p.hi jiratik</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>p.hi diwa</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1117,7 +1117,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>82</v>
+        <v>125</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>65</v>
@@ -1130,14 +1130,14 @@
       </c>
       <c r="I6" t="str">
         <f>LOWER(_xlfn.CONCAT("p.create ",Table1[[#This Row],[ID]]," ",Table1[[#This Row],[Column1]]," ",Table1[[#This Row],[Rarity]]," ",1))</f>
-        <v>p.create 491 draco mythical 1</v>
+        <v>p.create 491 milid mythical 1</v>
       </c>
       <c r="J6" t="str">
         <f>LOWER(_xlfn.CONCAT("p.hi ",Table1[[#This Row],[Column1]]))</f>
-        <v>p.hi draco</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>p.hi milid</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1145,7 +1145,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>83</v>
+        <v>122</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>66</v>
@@ -1158,14 +1158,14 @@
       </c>
       <c r="I7" t="str">
         <f>LOWER(_xlfn.CONCAT("p.create ",Table1[[#This Row],[ID]]," ",Table1[[#This Row],[Column1]]," ",Table1[[#This Row],[Rarity]]," ",1))</f>
-        <v>p.create 144 articane legendary 1</v>
+        <v>p.create 144 quartzan legendary 1</v>
       </c>
       <c r="J7" t="str">
         <f>LOWER(_xlfn.CONCAT("p.hi ",Table1[[#This Row],[Column1]]))</f>
-        <v>p.hi articane</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>p.hi quartzan</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1173,7 +1173,7 @@
         <v>0</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>67</v>
@@ -1193,7 +1193,7 @@
         <v>p.hi dagitab</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1201,7 +1201,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>85</v>
+        <v>123</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>68</v>
@@ -1214,14 +1214,14 @@
       </c>
       <c r="I9" t="str">
         <f>LOWER(_xlfn.CONCAT("p.create ",Table1[[#This Row],[ID]]," ",Table1[[#This Row],[Column1]]," ",Table1[[#This Row],[Rarity]]," ",1))</f>
-        <v>p.create 146 moltyte legendary 1</v>
+        <v>p.create 146 azrure legendary 1</v>
       </c>
       <c r="J9" t="str">
         <f>LOWER(_xlfn.CONCAT("p.hi ",Table1[[#This Row],[Column1]]))</f>
-        <v>p.hi moltyte</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>p.hi azrure</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1229,7 +1229,7 @@
         <v>3</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>62</v>
@@ -1249,7 +1249,7 @@
         <v>p.hi protwo</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1257,7 +1257,7 @@
         <v>54</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>69</v>
@@ -1277,7 +1277,7 @@
         <v>p.hi rhinome</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1285,7 +1285,7 @@
         <v>46</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>58</v>
@@ -1305,7 +1305,7 @@
         <v>p.hi jaguatone</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1313,7 +1313,7 @@
         <v>47</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>59</v>
@@ -1333,7 +1333,7 @@
         <v>p.hi vopari</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1341,7 +1341,7 @@
         <v>48</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>60</v>
@@ -1361,7 +1361,7 @@
         <v>p.hi saha</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1369,7 +1369,7 @@
         <v>49</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>70</v>
@@ -1389,7 +1389,7 @@
         <v>p.hi luwi</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1397,7 +1397,7 @@
         <v>55</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>58</v>
@@ -1417,7 +1417,7 @@
         <v>p.hi voltran</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1425,7 +1425,7 @@
         <v>50</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>59</v>
@@ -1445,7 +1445,7 @@
         <v>p.hi hypony</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1453,7 +1453,7 @@
         <v>51</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>71</v>
@@ -1473,7 +1473,7 @@
         <v>p.hi venok</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1481,7 +1481,7 @@
         <v>52</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>58</v>
@@ -1501,7 +1501,7 @@
         <v>p.hi alphatross</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1509,7 +1509,7 @@
         <v>53</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>60</v>
@@ -1529,15 +1529,15 @@
         <v>p.hi specinea</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>58</v>
@@ -1557,7 +1557,7 @@
         <v>p.hi mavi</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1565,7 +1565,7 @@
         <v>9</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>61</v>
@@ -1585,7 +1585,7 @@
         <v>p.hi salamazel</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1593,7 +1593,7 @@
         <v>10</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>59</v>
@@ -1613,7 +1613,7 @@
         <v>p.hi blazter</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1621,7 +1621,7 @@
         <v>34</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>60</v>
@@ -1641,7 +1641,7 @@
         <v>p.hi sid</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1649,7 +1649,7 @@
         <v>27</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>60</v>
@@ -1669,7 +1669,7 @@
         <v>p.hi tuko</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1677,7 +1677,7 @@
         <v>44</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>60</v>
@@ -1697,7 +1697,7 @@
         <v>p.hi allily</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1705,7 +1705,7 @@
         <v>35</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>60</v>
@@ -1725,7 +1725,7 @@
         <v>p.hi keru-keru</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1733,7 +1733,7 @@
         <v>30</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>59</v>
@@ -1753,7 +1753,7 @@
         <v>p.hi pen-pen</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1761,7 +1761,7 @@
         <v>31</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>59</v>
@@ -1781,7 +1781,7 @@
         <v>p.hi polydent</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1789,7 +1789,7 @@
         <v>12</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>58</v>
@@ -1809,7 +1809,7 @@
         <v>p.hi watts</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
@@ -1817,7 +1817,7 @@
         <v>36</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>61</v>
@@ -1837,7 +1837,7 @@
         <v>p.hi quiltile</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
@@ -1845,7 +1845,7 @@
         <v>45</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D32" s="7" t="s">
         <v>58</v>
@@ -1865,7 +1865,7 @@
         <v>p.hi luxious</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>31</v>
       </c>
@@ -1873,7 +1873,7 @@
         <v>37</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>61</v>
@@ -1893,7 +1893,7 @@
         <v>p.hi menggay</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>32</v>
       </c>
@@ -1901,7 +1901,7 @@
         <v>32</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D34" s="7" t="s">
         <v>58</v>
@@ -1921,7 +1921,7 @@
         <v>p.hi zapzap</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>33</v>
       </c>
@@ -1929,7 +1929,7 @@
         <v>33</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>58</v>
@@ -1949,7 +1949,7 @@
         <v>p.hi patchi</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>34</v>
       </c>
@@ -1957,7 +1957,7 @@
         <v>11</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D36" s="7" t="s">
         <v>61</v>
@@ -1977,7 +1977,7 @@
         <v>p.hi growela</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>35</v>
       </c>
@@ -2005,15 +2005,15 @@
         <v>p.hi yopa</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>36</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D38" s="7" t="s">
         <v>60</v>
@@ -2033,7 +2033,7 @@
         <v>p.hi mooshi</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>37</v>
       </c>
@@ -2061,7 +2061,7 @@
         <v>p.hi alidnak</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>38</v>
       </c>
@@ -2069,7 +2069,7 @@
         <v>40</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D40" s="7" t="s">
         <v>61</v>
@@ -2089,7 +2089,7 @@
         <v>p.hi chickotik</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>39</v>
       </c>
@@ -2117,7 +2117,7 @@
         <v>p.hi gibut</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>40</v>
       </c>
@@ -2125,7 +2125,7 @@
         <v>13</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D42" s="7" t="s">
         <v>59</v>
@@ -2145,7 +2145,7 @@
         <v>p.hi hooray</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>41</v>
       </c>
@@ -2153,7 +2153,7 @@
         <v>42</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D43" s="7" t="s">
         <v>59</v>
@@ -2173,7 +2173,7 @@
         <v>p.hi magicilla</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>42</v>
       </c>
@@ -2181,7 +2181,7 @@
         <v>43</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D44" s="7" t="s">
         <v>74</v>
@@ -2201,7 +2201,7 @@
         <v>p.hi balani</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>43</v>
       </c>
@@ -2209,7 +2209,7 @@
         <v>26</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D45" s="7" t="s">
         <v>60</v>
@@ -2229,7 +2229,7 @@
         <v>p.hi chickama</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>44</v>
       </c>
@@ -2237,7 +2237,7 @@
         <v>29</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D46" s="7" t="s">
         <v>59</v>
@@ -2257,7 +2257,7 @@
         <v>p.hi plok</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>45</v>
       </c>
@@ -2265,7 +2265,7 @@
         <v>28</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D47" s="7" t="s">
         <v>61</v>
@@ -2305,9 +2305,9 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>23</v>
       </c>
@@ -2330,34 +2330,34 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D4" t="s">
         <v>60</v>

--- a/Pokemon Supply Distribution.xlsx
+++ b/Pokemon Supply Distribution.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyFiles\00 - Projects\Dev\rumble\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E0690E5-CA23-404E-8508-F2270FD539EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59BD4146-E82E-4DA9-9888-0ABD64D0B514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{C5DC818E-8AB9-4D02-86E9-8C9248B295A5}"/>
   </bookViews>
@@ -979,7 +979,7 @@
   <dimension ref="A1:J47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Pokemon Supply Distribution.xlsx
+++ b/Pokemon Supply Distribution.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyFiles\00 - Projects\Dev\rumble\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59BD4146-E82E-4DA9-9888-0ABD64D0B514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AEB141E-4410-42E8-83E0-DE62757F8CF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{C5DC818E-8AB9-4D02-86E9-8C9248B295A5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{C5DC818E-8AB9-4D02-86E9-8C9248B295A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -279,21 +279,9 @@
     <t>proto</t>
   </si>
   <si>
-    <t>celestik</t>
-  </si>
-  <si>
     <t>dagitab</t>
   </si>
   <si>
-    <t>protwo</t>
-  </si>
-  <si>
-    <t>rhinome</t>
-  </si>
-  <si>
-    <t>jaguatone</t>
-  </si>
-  <si>
     <t>vopari</t>
   </si>
   <si>
@@ -309,12 +297,6 @@
     <t>venok</t>
   </si>
   <si>
-    <t>alphatross</t>
-  </si>
-  <si>
-    <t>specinea</t>
-  </si>
-  <si>
     <t>salamazel</t>
   </si>
   <si>
@@ -324,21 +306,12 @@
     <t>sid</t>
   </si>
   <si>
-    <t>allily</t>
-  </si>
-  <si>
     <t>keru-keru</t>
   </si>
   <si>
     <t>pen-pen</t>
   </si>
   <si>
-    <t>polydent</t>
-  </si>
-  <si>
-    <t>quiltile</t>
-  </si>
-  <si>
     <t>luxious</t>
   </si>
   <si>
@@ -351,12 +324,6 @@
     <t>chickotik</t>
   </si>
   <si>
-    <t>hooray</t>
-  </si>
-  <si>
-    <t>magicilla</t>
-  </si>
-  <si>
     <t>balani</t>
   </si>
   <si>
@@ -396,25 +363,58 @@
     <t>tuko</t>
   </si>
   <si>
-    <t>patchi</t>
-  </si>
-  <si>
     <t>mavi</t>
   </si>
   <si>
     <t>watts</t>
   </si>
   <si>
-    <t>quartzan</t>
-  </si>
-  <si>
-    <t>azrure</t>
-  </si>
-  <si>
     <t>diwa</t>
   </si>
   <si>
     <t>milid</t>
+  </si>
+  <si>
+    <t>statix</t>
+  </si>
+  <si>
+    <t>barena</t>
+  </si>
+  <si>
+    <t>sancho</t>
+  </si>
+  <si>
+    <t>etetub</t>
+  </si>
+  <si>
+    <t>sindak</t>
+  </si>
+  <si>
+    <t>selestik</t>
+  </si>
+  <si>
+    <t>kislap</t>
+  </si>
+  <si>
+    <t>azrura</t>
+  </si>
+  <si>
+    <t>quartzana</t>
+  </si>
+  <si>
+    <t>liryo</t>
+  </si>
+  <si>
+    <t>bizkit</t>
+  </si>
+  <si>
+    <t>aipalit</t>
+  </si>
+  <si>
+    <t>lucifer</t>
+  </si>
+  <si>
+    <t>prot2</t>
   </si>
 </sst>
 </file>
@@ -562,8 +562,8 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F12EF143-E498-46B0-9F37-1CDAED47B267}" name="Table1" displayName="Table1" ref="A2:G47" totalsRowShown="0">
   <autoFilter ref="A2:G47" xr:uid="{F12EF143-E498-46B0-9F37-1CDAED47B267}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:F44">
-    <sortCondition ref="F2:F44"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:G47">
+    <sortCondition ref="A2:A47"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{C5C25CC3-DD91-42CA-AFD6-C94AC8306470}" name="No."/>
@@ -979,7 +979,7 @@
   <dimension ref="A1:J47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1061,7 +1061,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="D4" t="s">
         <v>63</v>
@@ -1074,11 +1074,11 @@
       </c>
       <c r="I4" t="str">
         <f>LOWER(_xlfn.CONCAT("p.create ",Table1[[#This Row],[ID]]," ",Table1[[#This Row],[Column1]]," ",Table1[[#This Row],[Rarity]]," ",1))</f>
-        <v>p.create 251 celestik mythical 1</v>
+        <v>p.create 251 selestik mythical 1</v>
       </c>
       <c r="J4" t="str">
         <f>LOWER(_xlfn.CONCAT("p.hi ",Table1[[#This Row],[Column1]]))</f>
-        <v>p.hi celestik</v>
+        <v>p.hi selestik</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -1089,7 +1089,7 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="D5" t="s">
         <v>64</v>
@@ -1117,7 +1117,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>65</v>
@@ -1145,7 +1145,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>66</v>
@@ -1158,11 +1158,11 @@
       </c>
       <c r="I7" t="str">
         <f>LOWER(_xlfn.CONCAT("p.create ",Table1[[#This Row],[ID]]," ",Table1[[#This Row],[Column1]]," ",Table1[[#This Row],[Rarity]]," ",1))</f>
-        <v>p.create 144 quartzan legendary 1</v>
+        <v>p.create 144 quartzana legendary 1</v>
       </c>
       <c r="J7" t="str">
         <f>LOWER(_xlfn.CONCAT("p.hi ",Table1[[#This Row],[Column1]]))</f>
-        <v>p.hi quartzan</v>
+        <v>p.hi quartzana</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -1173,7 +1173,7 @@
         <v>0</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>67</v>
@@ -1201,7 +1201,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>68</v>
@@ -1214,11 +1214,11 @@
       </c>
       <c r="I9" t="str">
         <f>LOWER(_xlfn.CONCAT("p.create ",Table1[[#This Row],[ID]]," ",Table1[[#This Row],[Column1]]," ",Table1[[#This Row],[Rarity]]," ",1))</f>
-        <v>p.create 146 azrure legendary 1</v>
+        <v>p.create 146 azrura legendary 1</v>
       </c>
       <c r="J9" t="str">
         <f>LOWER(_xlfn.CONCAT("p.hi ",Table1[[#This Row],[Column1]]))</f>
-        <v>p.hi azrure</v>
+        <v>p.hi azrura</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -1229,7 +1229,7 @@
         <v>3</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>82</v>
+        <v>125</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>62</v>
@@ -1242,11 +1242,11 @@
       </c>
       <c r="I10" t="str">
         <f>LOWER(_xlfn.CONCAT("p.create ",Table1[[#This Row],[ID]]," ",Table1[[#This Row],[Column1]]," ",Table1[[#This Row],[Rarity]]," ",1))</f>
-        <v>p.create 150 protwo legendary 1</v>
+        <v>p.create 150 prot2 legendary 1</v>
       </c>
       <c r="J10" t="str">
         <f>LOWER(_xlfn.CONCAT("p.hi ",Table1[[#This Row],[Column1]]))</f>
-        <v>p.hi protwo</v>
+        <v>p.hi prot2</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -1257,7 +1257,7 @@
         <v>54</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>83</v>
+        <v>118</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>69</v>
@@ -1270,11 +1270,11 @@
       </c>
       <c r="I11" t="str">
         <f>LOWER(_xlfn.CONCAT("p.create ",Table1[[#This Row],[ID]]," ",Table1[[#This Row],[Column1]]," ",Table1[[#This Row],[Rarity]]," ",1))</f>
-        <v>p.create 479 rhinome rare 1</v>
+        <v>p.create 479 kislap rare 1</v>
       </c>
       <c r="J11" t="str">
         <f>LOWER(_xlfn.CONCAT("p.hi ",Table1[[#This Row],[Column1]]))</f>
-        <v>p.hi rhinome</v>
+        <v>p.hi kislap</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -1285,7 +1285,7 @@
         <v>46</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>58</v>
@@ -1298,11 +1298,11 @@
       </c>
       <c r="I12" t="str">
         <f>LOWER(_xlfn.CONCAT("p.create ",Table1[[#This Row],[ID]]," ",Table1[[#This Row],[Column1]]," ",Table1[[#This Row],[Rarity]]," ",1))</f>
-        <v>p.create 135 jaguatone rare 1</v>
+        <v>p.create 135 statix rare 1</v>
       </c>
       <c r="J12" t="str">
         <f>LOWER(_xlfn.CONCAT("p.hi ",Table1[[#This Row],[Column1]]))</f>
-        <v>p.hi jaguatone</v>
+        <v>p.hi statix</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -1313,7 +1313,7 @@
         <v>47</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>59</v>
@@ -1341,7 +1341,7 @@
         <v>48</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>60</v>
@@ -1369,7 +1369,7 @@
         <v>49</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>70</v>
@@ -1397,7 +1397,7 @@
         <v>55</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>58</v>
@@ -1425,7 +1425,7 @@
         <v>50</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>59</v>
@@ -1453,7 +1453,7 @@
         <v>51</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>71</v>
@@ -1481,7 +1481,7 @@
         <v>52</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>58</v>
@@ -1494,11 +1494,11 @@
       </c>
       <c r="I19" t="str">
         <f>LOWER(_xlfn.CONCAT("p.create ",Table1[[#This Row],[ID]]," ",Table1[[#This Row],[Column1]]," ",Table1[[#This Row],[Rarity]]," ",1))</f>
-        <v>p.create 181 alphatross rare 1</v>
+        <v>p.create 181 barena rare 1</v>
       </c>
       <c r="J19" t="str">
         <f>LOWER(_xlfn.CONCAT("p.hi ",Table1[[#This Row],[Column1]]))</f>
-        <v>p.hi alphatross</v>
+        <v>p.hi barena</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -1509,7 +1509,7 @@
         <v>53</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>60</v>
@@ -1522,11 +1522,11 @@
       </c>
       <c r="I20" t="str">
         <f>LOWER(_xlfn.CONCAT("p.create ",Table1[[#This Row],[ID]]," ",Table1[[#This Row],[Column1]]," ",Table1[[#This Row],[Rarity]]," ",1))</f>
-        <v>p.create 331 specinea rare 1</v>
+        <v>p.create 331 sancho rare 1</v>
       </c>
       <c r="J20" t="str">
         <f>LOWER(_xlfn.CONCAT("p.hi ",Table1[[#This Row],[Column1]]))</f>
-        <v>p.hi specinea</v>
+        <v>p.hi sancho</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -1534,10 +1534,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>58</v>
@@ -1565,7 +1565,7 @@
         <v>9</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>61</v>
@@ -1593,7 +1593,7 @@
         <v>10</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>59</v>
@@ -1621,7 +1621,7 @@
         <v>34</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>60</v>
@@ -1649,7 +1649,7 @@
         <v>27</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>60</v>
@@ -1677,7 +1677,7 @@
         <v>44</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>60</v>
@@ -1690,11 +1690,11 @@
       </c>
       <c r="I26" t="str">
         <f>LOWER(_xlfn.CONCAT("p.create ",Table1[[#This Row],[ID]]," ",Table1[[#This Row],[Column1]]," ",Table1[[#This Row],[Rarity]]," ",1))</f>
-        <v>p.create 549 allily common 1</v>
+        <v>p.create 549 liryo common 1</v>
       </c>
       <c r="J26" t="str">
         <f>LOWER(_xlfn.CONCAT("p.hi ",Table1[[#This Row],[Column1]]))</f>
-        <v>p.hi allily</v>
+        <v>p.hi liryo</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
@@ -1705,7 +1705,7 @@
         <v>35</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>60</v>
@@ -1733,7 +1733,7 @@
         <v>30</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>59</v>
@@ -1761,7 +1761,7 @@
         <v>31</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>59</v>
@@ -1774,11 +1774,11 @@
       </c>
       <c r="I29" t="str">
         <f>LOWER(_xlfn.CONCAT("p.create ",Table1[[#This Row],[ID]]," ",Table1[[#This Row],[Column1]]," ",Table1[[#This Row],[Rarity]]," ",1))</f>
-        <v>p.create 60 polydent common 1</v>
+        <v>p.create 60 etetub common 1</v>
       </c>
       <c r="J29" t="str">
         <f>LOWER(_xlfn.CONCAT("p.hi ",Table1[[#This Row],[Column1]]))</f>
-        <v>p.hi polydent</v>
+        <v>p.hi etetub</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
@@ -1789,7 +1789,7 @@
         <v>12</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>58</v>
@@ -1817,7 +1817,7 @@
         <v>36</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>61</v>
@@ -1830,11 +1830,11 @@
       </c>
       <c r="I31" t="str">
         <f>LOWER(_xlfn.CONCAT("p.create ",Table1[[#This Row],[ID]]," ",Table1[[#This Row],[Column1]]," ",Table1[[#This Row],[Rarity]]," ",1))</f>
-        <v>p.create 155 quiltile common 1</v>
+        <v>p.create 155 sindak common 1</v>
       </c>
       <c r="J31" t="str">
         <f>LOWER(_xlfn.CONCAT("p.hi ",Table1[[#This Row],[Column1]]))</f>
-        <v>p.hi quiltile</v>
+        <v>p.hi sindak</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
@@ -1845,7 +1845,7 @@
         <v>45</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="D32" s="7" t="s">
         <v>58</v>
@@ -1873,7 +1873,7 @@
         <v>37</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>61</v>
@@ -1901,7 +1901,7 @@
         <v>32</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D34" s="7" t="s">
         <v>58</v>
@@ -1929,7 +1929,7 @@
         <v>33</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>58</v>
@@ -1942,11 +1942,11 @@
       </c>
       <c r="I35" t="str">
         <f>LOWER(_xlfn.CONCAT("p.create ",Table1[[#This Row],[ID]]," ",Table1[[#This Row],[Column1]]," ",Table1[[#This Row],[Rarity]]," ",1))</f>
-        <v>p.create 417 patchi common 1</v>
+        <v>p.create 417 lucifer common 1</v>
       </c>
       <c r="J35" t="str">
         <f>LOWER(_xlfn.CONCAT("p.hi ",Table1[[#This Row],[Column1]]))</f>
-        <v>p.hi patchi</v>
+        <v>p.hi lucifer</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
@@ -1957,7 +1957,7 @@
         <v>11</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="D36" s="7" t="s">
         <v>61</v>
@@ -2010,10 +2010,10 @@
         <v>36</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="D38" s="7" t="s">
         <v>60</v>
@@ -2069,7 +2069,7 @@
         <v>40</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D40" s="7" t="s">
         <v>61</v>
@@ -2125,7 +2125,7 @@
         <v>13</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="D42" s="7" t="s">
         <v>59</v>
@@ -2138,11 +2138,11 @@
       </c>
       <c r="I42" t="str">
         <f>LOWER(_xlfn.CONCAT("p.create ",Table1[[#This Row],[ID]]," ",Table1[[#This Row],[Column1]]," ",Table1[[#This Row],[Rarity]]," ",1))</f>
-        <v>p.create 116 hooray common 1</v>
+        <v>p.create 116 bizkit common 1</v>
       </c>
       <c r="J42" t="str">
         <f>LOWER(_xlfn.CONCAT("p.hi ",Table1[[#This Row],[Column1]]))</f>
-        <v>p.hi hooray</v>
+        <v>p.hi bizkit</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
@@ -2153,7 +2153,7 @@
         <v>42</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="D43" s="7" t="s">
         <v>59</v>
@@ -2166,11 +2166,11 @@
       </c>
       <c r="I43" t="str">
         <f>LOWER(_xlfn.CONCAT("p.create ",Table1[[#This Row],[ID]]," ",Table1[[#This Row],[Column1]]," ",Table1[[#This Row],[Rarity]]," ",1))</f>
-        <v>p.create 129 magicilla common 1</v>
+        <v>p.create 129 aipalit common 1</v>
       </c>
       <c r="J43" t="str">
         <f>LOWER(_xlfn.CONCAT("p.hi ",Table1[[#This Row],[Column1]]))</f>
-        <v>p.hi magicilla</v>
+        <v>p.hi aipalit</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
@@ -2181,7 +2181,7 @@
         <v>43</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="D44" s="7" t="s">
         <v>74</v>
@@ -2209,7 +2209,7 @@
         <v>26</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="D45" s="7" t="s">
         <v>60</v>
@@ -2237,7 +2237,7 @@
         <v>29</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="D46" s="7" t="s">
         <v>59</v>
@@ -2265,7 +2265,7 @@
         <v>28</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="D47" s="7" t="s">
         <v>61</v>
@@ -2335,7 +2335,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="D2" t="s">
         <v>59</v>
@@ -2346,7 +2346,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="D3" t="s">
         <v>60</v>
@@ -2357,7 +2357,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="D4" t="s">
         <v>60</v>

--- a/Pokemon Supply Distribution.xlsx
+++ b/Pokemon Supply Distribution.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyFiles\00 - Projects\Dev\rumble\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AEB141E-4410-42E8-83E0-DE62757F8CF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{645EAAB9-AEC1-4FCE-AB0D-001D3F279E3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{C5DC818E-8AB9-4D02-86E9-8C9248B295A5}"/>
   </bookViews>
@@ -978,8 +978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9966805-79DB-4CCA-A5D2-3255ED92FDD9}">
   <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Pokemon Supply Distribution.xlsx
+++ b/Pokemon Supply Distribution.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyFiles\00 - Projects\Dev\rumble\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{645EAAB9-AEC1-4FCE-AB0D-001D3F279E3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CD0AD8D-06B8-459C-B7FE-14D3C14FE092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{C5DC818E-8AB9-4D02-86E9-8C9248B295A5}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="1" xr2:uid="{C5DC818E-8AB9-4D02-86E9-8C9248B295A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -327,12 +327,6 @@
     <t>balani</t>
   </si>
   <si>
-    <t>chickama</t>
-  </si>
-  <si>
-    <t>plok</t>
-  </si>
-  <si>
     <t>fieros</t>
   </si>
   <si>
@@ -415,6 +409,12 @@
   </si>
   <si>
     <t>prot2</t>
+  </si>
+  <si>
+    <t>wisik</t>
+  </si>
+  <si>
+    <t>omad</t>
   </si>
 </sst>
 </file>
@@ -978,8 +978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9966805-79DB-4CCA-A5D2-3255ED92FDD9}">
   <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="L34" sqref="L34"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3:J47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1061,7 +1061,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D4" t="s">
         <v>63</v>
@@ -1089,7 +1089,7 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D5" t="s">
         <v>64</v>
@@ -1117,7 +1117,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>65</v>
@@ -1145,7 +1145,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>66</v>
@@ -1201,7 +1201,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>68</v>
@@ -1229,7 +1229,7 @@
         <v>3</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>62</v>
@@ -1257,7 +1257,7 @@
         <v>54</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>69</v>
@@ -1285,7 +1285,7 @@
         <v>46</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>58</v>
@@ -1369,7 +1369,7 @@
         <v>49</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>70</v>
@@ -1481,7 +1481,7 @@
         <v>52</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>58</v>
@@ -1509,7 +1509,7 @@
         <v>53</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>60</v>
@@ -1534,10 +1534,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>58</v>
@@ -1649,7 +1649,7 @@
         <v>27</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>60</v>
@@ -1677,7 +1677,7 @@
         <v>44</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>60</v>
@@ -1761,7 +1761,7 @@
         <v>31</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>59</v>
@@ -1789,7 +1789,7 @@
         <v>12</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>58</v>
@@ -1817,7 +1817,7 @@
         <v>36</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>61</v>
@@ -1873,7 +1873,7 @@
         <v>37</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>61</v>
@@ -1929,7 +1929,7 @@
         <v>33</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>58</v>
@@ -1985,7 +1985,7 @@
         <v>38</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>61</v>
@@ -1998,11 +1998,11 @@
       </c>
       <c r="I37" t="str">
         <f>LOWER(_xlfn.CONCAT("p.create ",Table1[[#This Row],[ID]]," ",Table1[[#This Row],[Column1]]," ",Table1[[#This Row],[Rarity]]," ",1))</f>
-        <v>p.create 37 yopa common 1</v>
+        <v>p.create 37 fieros common 1</v>
       </c>
       <c r="J37" t="str">
         <f>LOWER(_xlfn.CONCAT("p.hi ",Table1[[#This Row],[Column1]]))</f>
-        <v>p.hi yopa</v>
+        <v>p.hi fieros</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
@@ -2010,10 +2010,10 @@
         <v>36</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D38" s="7" t="s">
         <v>60</v>
@@ -2097,7 +2097,7 @@
         <v>41</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>78</v>
+        <v>124</v>
       </c>
       <c r="D41" s="7" t="s">
         <v>73</v>
@@ -2110,11 +2110,11 @@
       </c>
       <c r="I41" t="str">
         <f>LOWER(_xlfn.CONCAT("p.create ",Table1[[#This Row],[ID]]," ",Table1[[#This Row],[Column1]]," ",Table1[[#This Row],[Rarity]]," ",1))</f>
-        <v>p.create 194 gibut common 1</v>
+        <v>p.create 194 wisik common 1</v>
       </c>
       <c r="J41" t="str">
         <f>LOWER(_xlfn.CONCAT("p.hi ",Table1[[#This Row],[Column1]]))</f>
-        <v>p.hi gibut</v>
+        <v>p.hi wisik</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
@@ -2125,7 +2125,7 @@
         <v>13</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D42" s="7" t="s">
         <v>59</v>
@@ -2153,7 +2153,7 @@
         <v>42</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D43" s="7" t="s">
         <v>59</v>
@@ -2209,7 +2209,7 @@
         <v>26</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="D45" s="7" t="s">
         <v>60</v>
@@ -2222,11 +2222,11 @@
       </c>
       <c r="I45" t="str">
         <f>LOWER(_xlfn.CONCAT("p.create ",Table1[[#This Row],[ID]]," ",Table1[[#This Row],[Column1]]," ",Table1[[#This Row],[Rarity]]," ",1))</f>
-        <v>p.create 152 chickama starter 1</v>
+        <v>p.create 152 omad starter 1</v>
       </c>
       <c r="J45" t="str">
         <f>LOWER(_xlfn.CONCAT("p.hi ",Table1[[#This Row],[Column1]]))</f>
-        <v>p.hi chickama</v>
+        <v>p.hi omad</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
@@ -2237,7 +2237,7 @@
         <v>29</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="D46" s="7" t="s">
         <v>59</v>
@@ -2250,11 +2250,11 @@
       </c>
       <c r="I46" t="str">
         <f>LOWER(_xlfn.CONCAT("p.create ",Table1[[#This Row],[ID]]," ",Table1[[#This Row],[Column1]]," ",Table1[[#This Row],[Rarity]]," ",1))</f>
-        <v>p.create 258 plok starter 1</v>
+        <v>p.create 258 gibut starter 1</v>
       </c>
       <c r="J46" t="str">
         <f>LOWER(_xlfn.CONCAT("p.hi ",Table1[[#This Row],[Column1]]))</f>
-        <v>p.hi plok</v>
+        <v>p.hi gibut</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
@@ -2265,7 +2265,7 @@
         <v>28</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="D47" s="7" t="s">
         <v>61</v>
@@ -2278,11 +2278,11 @@
       </c>
       <c r="I47" t="str">
         <f>LOWER(_xlfn.CONCAT("p.create ",Table1[[#This Row],[ID]]," ",Table1[[#This Row],[Column1]]," ",Table1[[#This Row],[Rarity]]," ",1))</f>
-        <v>p.create 653 fieros starter 1</v>
+        <v>p.create 653 yopa starter 1</v>
       </c>
       <c r="J47" t="str">
         <f>LOWER(_xlfn.CONCAT("p.hi ",Table1[[#This Row],[Column1]]))</f>
-        <v>p.hi fieros</v>
+        <v>p.hi yopa</v>
       </c>
     </row>
   </sheetData>
@@ -2335,7 +2335,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D2" t="s">
         <v>59</v>
@@ -2346,7 +2346,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D3" t="s">
         <v>60</v>
@@ -2357,7 +2357,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D4" t="s">
         <v>60</v>
